--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_8_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_8_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1556542.796224389</v>
+        <v>1553724.513199477</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5119633.367422727</v>
+        <v>5119633.36742273</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8070297.313271908</v>
+        <v>8070297.313271907</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>175.4713805052131</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>384.7639398737445</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -709,25 +709,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -800,7 +800,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.8160734080467</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>179.1061630159701</v>
       </c>
       <c r="U4" t="n">
-        <v>85.17955375501205</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>185.0369985129313</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>75.49575578310093</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>175.2139736830814</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>83.09224796262757</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>239.9984638361479</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>316.9292098040389</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>278.9357490967232</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>72.30123682227985</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>226.3816667732198</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>229.745339492262</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>309.2953166467757</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>43.76803735019521</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>232.2142445012334</v>
+        <v>119.1064492346771</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -1618,10 +1618,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>316.5487336740566</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>156.8367197338825</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>31.1289426492287</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>151.5357458635549</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>150.8611177537355</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>113.9672078954728</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -1858,13 +1858,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>408.2830491160485</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>313.180957500541</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>172.4358579620374</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2004,19 +2004,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>58.35463813577756</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>131.2441484285762</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2359509470872</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>107.5738730925879</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>194.9399852654295</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>231.9280946334754</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5661004360929</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -2092,13 +2092,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>192.6355500587544</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>408.2830491160485</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>181.4389853138332</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>147.8015729229842</v>
       </c>
       <c r="T20" t="n">
-        <v>217.9908812904515</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1353559624811</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -2180,7 +2180,7 @@
         <v>83.54879775553131</v>
       </c>
       <c r="I21" t="n">
-        <v>35.1125870944341</v>
+        <v>35.11258709443409</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>21.5713484572378</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
@@ -2256,13 +2256,13 @@
         <v>166.2359509470872</v>
       </c>
       <c r="H22" t="n">
-        <v>150.9403106068158</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>121.6722041362075</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.350224769714963</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5661004360929</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>54.45386591847028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,10 +2329,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>340.4371229817382</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.8378661493489</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.9908812904515</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1353559624811</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>98.64261828343137</v>
       </c>
       <c r="H25" t="n">
-        <v>100.0478334489653</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>107.5738730925879</v>
       </c>
       <c r="S25" t="n">
-        <v>194.9399852654295</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>231.9280946334754</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5661004360929</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>408.2830491160485</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>153.6748841279404</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>160.6426071002728</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>35.02569584269623</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>150.9403106068158</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>121.6722041362075</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>176.7610946971706</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>115.0483849505615</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -2806,13 +2806,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>408.2830491160485</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>313.180957500541</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>108.1134362274253</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>147.8015729229842</v>
       </c>
       <c r="T29" t="n">
         <v>217.9908812904515</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1353559624811</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>10.48236094952359</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>136.9139119531129</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>194.9399852654295</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>231.9280946334754</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5661004360929</v>
       </c>
       <c r="V31" t="n">
-        <v>83.62269977524903</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -3040,13 +3040,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>408.2830491160485</v>
       </c>
       <c r="H32" t="n">
-        <v>313.180957500541</v>
+        <v>111.2496769463656</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>147.8015729229842</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>217.9908812904515</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1353559624811</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>253.2194207127217</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>90.30997378370803</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.2359509470872</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>150.9403106068158</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>121.6722041362075</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>107.5738730925879</v>
+        <v>33.16032444757415</v>
       </c>
       <c r="S34" t="n">
-        <v>194.9399852654295</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>231.9280946334754</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5661004360929</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>146.4170983621858</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>408.2830491160485</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>313.180957500541</v>
       </c>
       <c r="I35" t="n">
-        <v>108.1134362274253</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>147.8015729229842</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.9908812904515</v>
       </c>
       <c r="U35" t="n">
-        <v>196.2606758807231</v>
+        <v>253.1353559624811</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -3331,7 +3331,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -3426,13 +3426,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>135.3722485529107</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>121.6722041362075</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5875282049897</v>
       </c>
       <c r="T37" t="n">
-        <v>231.9280946334754</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>345.0348215188804</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3520,7 +3520,7 @@
         <v>408.2830491160485</v>
       </c>
       <c r="H38" t="n">
-        <v>313.180957500541</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>217.9908812904515</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1353559624811</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>192.879890550011</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3602,7 +3602,7 @@
         <v>83.54879775553131</v>
       </c>
       <c r="I39" t="n">
-        <v>35.11258709443408</v>
+        <v>35.11258709443409</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>44.5862643927607</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.2359509470872</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>48.52927367299057</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>408.2830491160485</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>313.180957500541</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>147.8015729229842</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.9908812904515</v>
       </c>
       <c r="U41" t="n">
-        <v>2.224616510564276</v>
+        <v>202.6747023010627</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>83.54879775553131</v>
       </c>
       <c r="I42" t="n">
-        <v>35.11258709443408</v>
+        <v>35.11258709443409</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>144.9309376297922</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.2359509470872</v>
       </c>
       <c r="H43" t="n">
         <v>150.9403106068158</v>
       </c>
       <c r="I43" t="n">
-        <v>121.6722041362075</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>107.5738730925879</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>231.9280946334754</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>260.5304256079322</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>408.2830491160485</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>108.1134362274253</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>147.8015729229842</v>
+        <v>97.78021882943764</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.9908812904515</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>104.6950902783972</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4076,7 +4076,7 @@
         <v>83.54879775553131</v>
       </c>
       <c r="I45" t="n">
-        <v>35.11258709443408</v>
+        <v>35.11258709443409</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>150.9403106068158</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>107.5738730925879</v>
       </c>
       <c r="S46" t="n">
-        <v>194.9399852654295</v>
+        <v>158.8968263018434</v>
       </c>
       <c r="T46" t="n">
-        <v>66.3281482285709</v>
+        <v>231.9280946334754</v>
       </c>
       <c r="U46" t="n">
         <v>282.5661004360929</v>
@@ -4197,7 +4197,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1304.413117686189</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="C2" t="n">
-        <v>911.23761618912</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="D2" t="n">
-        <v>911.23761618912</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="E2" t="n">
-        <v>911.23761618912</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F2" t="n">
-        <v>898.3835817595018</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G2" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
         <v>185.6500870090788</v>
@@ -4333,16 +4333,16 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L2" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M2" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N2" t="n">
-        <v>1590.266290800943</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
         <v>1832.61545280471</v>
@@ -4357,25 +4357,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U2" t="n">
-        <v>2071.902861797301</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V2" t="n">
-        <v>2071.902861797301</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W2" t="n">
-        <v>1700.903826765588</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="X2" t="n">
-        <v>1700.903826765588</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="Y2" t="n">
-        <v>1304.413117686189</v>
+        <v>1595.534624566688</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>160.427952321271</v>
+        <v>194.5661265746817</v>
       </c>
       <c r="L3" t="n">
-        <v>643.9940382195842</v>
+        <v>678.132212472995</v>
       </c>
       <c r="M3" t="n">
-        <v>1229.492043226187</v>
+        <v>1263.630217479597</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.763130931309</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O3" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1494.579752709526</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="C4" t="n">
-        <v>1494.579752709526</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="D4" t="n">
-        <v>1494.579752709526</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E4" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N4" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O4" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P4" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T4" t="n">
-        <v>2129.929453245415</v>
+        <v>643.9436870979255</v>
       </c>
       <c r="U4" t="n">
-        <v>2043.889499957524</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="V4" t="n">
-        <v>1777.910154778348</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="W4" t="n">
-        <v>1494.579752709526</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.579752709526</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="Y4" t="n">
-        <v>1494.579752709526</v>
+        <v>358.5048953398264</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1741.6531569252</v>
+        <v>1605.196864978524</v>
       </c>
       <c r="C5" t="n">
-        <v>1741.6531569252</v>
+        <v>1605.196864978524</v>
       </c>
       <c r="D5" t="n">
-        <v>1356.212028141868</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="E5" t="n">
-        <v>953.6285032584121</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F5" t="n">
-        <v>536.7340647883899</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G5" t="n">
-        <v>123.571309276393</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H5" t="n">
-        <v>123.571309276393</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I5" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N5" t="n">
         <v>1832.61545280471</v>
@@ -4597,22 +4597,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T5" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U5" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V5" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W5" t="n">
-        <v>2142.147902636597</v>
+        <v>1994.649470045468</v>
       </c>
       <c r="X5" t="n">
-        <v>2142.147902636597</v>
+        <v>1605.196864978524</v>
       </c>
       <c r="Y5" t="n">
-        <v>2142.147902636597</v>
+        <v>1605.196864978524</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>305.4650404492652</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0311263475785</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1374.529131354181</v>
+        <v>1029.265125924707</v>
       </c>
       <c r="N6" t="n">
-        <v>1960.027136360783</v>
+        <v>1614.763130931309</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.64850507718</v>
@@ -4676,13 +4676,13 @@
         <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4691,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.69124027544166</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="C7" t="n">
-        <v>77.69124027544166</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="D7" t="n">
-        <v>77.69124027544166</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="E7" t="n">
-        <v>77.69124027544166</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4752,25 +4752,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>864.8284290444824</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>629.1093772127165</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U7" t="n">
-        <v>343.6705854546174</v>
+        <v>470.6182500677464</v>
       </c>
       <c r="V7" t="n">
-        <v>77.69124027544166</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="W7" t="n">
-        <v>77.69124027544166</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="X7" t="n">
-        <v>77.69124027544166</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="Y7" t="n">
-        <v>77.69124027544166</v>
+        <v>204.6389048885707</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1714.702383855175</v>
+        <v>1927.160845651305</v>
       </c>
       <c r="C8" t="n">
-        <v>1321.526882358106</v>
+        <v>1533.985344154236</v>
       </c>
       <c r="D8" t="n">
-        <v>1321.526882358106</v>
+        <v>1148.544215370903</v>
       </c>
       <c r="E8" t="n">
-        <v>918.9433574746504</v>
+        <v>745.9606904874479</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>329.0662520174257</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4834,22 +4834,22 @@
         <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2104.154988922119</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2104.154988922119</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>2104.154988922119</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>2104.154988922119</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>1714.702383855175</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>1714.702383855175</v>
+        <v>2327.655591362702</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>313.2923152807194</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>720.0916423671165</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>486.0113201500996</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>262.8992589667429</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>597.2678437130562</v>
+        <v>1179.210445219441</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2018442259228</v>
+        <v>1179.210445219441</v>
       </c>
       <c r="D11" t="n">
-        <v>365.2018442259228</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="E11" t="n">
-        <v>365.2018442259228</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F11" t="n">
-        <v>365.2018442259228</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G11" t="n">
-        <v>365.2018442259228</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H11" t="n">
         <v>47.31297010154361</v>
@@ -5044,16 +5044,16 @@
         <v>242.2750666411637</v>
       </c>
       <c r="K11" t="n">
-        <v>676.6625536667298</v>
+        <v>242.2750666411637</v>
       </c>
       <c r="L11" t="n">
-        <v>676.6625536667298</v>
+        <v>827.7730716477658</v>
       </c>
       <c r="M11" t="n">
-        <v>1262.160558673332</v>
+        <v>827.7730716477658</v>
       </c>
       <c r="N11" t="n">
-        <v>1262.160558673332</v>
+        <v>1143.438745502629</v>
       </c>
       <c r="O11" t="n">
         <v>1683.356819045779</v>
@@ -5068,25 +5068,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2212.917427024876</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T11" t="n">
-        <v>1992.064451269826</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U11" t="n">
-        <v>1736.360107800334</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V11" t="n">
-        <v>1394.253298503852</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W11" t="n">
-        <v>1394.253298503852</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X11" t="n">
-        <v>1394.253298503852</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y11" t="n">
-        <v>997.7625894244532</v>
+        <v>1579.705190930838</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>190.3936276018482</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K12" t="n">
-        <v>561.3488855811172</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L12" t="n">
-        <v>686.4457404807927</v>
+        <v>599.7454389330993</v>
       </c>
       <c r="M12" t="n">
-        <v>686.4457404807927</v>
+        <v>1185.243443939702</v>
       </c>
       <c r="N12" t="n">
-        <v>1271.943745487395</v>
+        <v>1738.13080615708</v>
       </c>
       <c r="O12" t="n">
-        <v>1857.441750493997</v>
+        <v>2323.628811163682</v>
       </c>
       <c r="P12" t="n">
         <v>2323.628811163682</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.1389716262288</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>415.1389716262288</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>259.5058585287435</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>259.5058585287435</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>215.2957197911726</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
         <v>47.31297010154361</v>
@@ -5223,28 +5223,28 @@
         <v>1193.569293598826</v>
       </c>
       <c r="R13" t="n">
-        <v>1081.867128115379</v>
+        <v>1193.569293598826</v>
       </c>
       <c r="S13" t="n">
-        <v>883.7791367737846</v>
+        <v>1193.569293598826</v>
       </c>
       <c r="T13" t="n">
-        <v>649.2192938432457</v>
+        <v>1073.259748917334</v>
       </c>
       <c r="U13" t="n">
-        <v>649.2192938432457</v>
+        <v>787.8357555707396</v>
       </c>
       <c r="V13" t="n">
-        <v>649.2192938432457</v>
+        <v>787.8357555707396</v>
       </c>
       <c r="W13" t="n">
-        <v>649.2192938432457</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X13" t="n">
-        <v>415.1389716262288</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.1389716262288</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1965.153759365783</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="C14" t="n">
-        <v>1571.978257868714</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="D14" t="n">
-        <v>1186.537129085382</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E14" t="n">
-        <v>783.9536042019261</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F14" t="n">
-        <v>367.0591657319038</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G14" t="n">
         <v>47.31297010154361</v>
@@ -5284,13 +5284,13 @@
         <v>676.6625536667298</v>
       </c>
       <c r="L14" t="n">
-        <v>676.6625536667298</v>
+        <v>1262.160558673332</v>
       </c>
       <c r="M14" t="n">
-        <v>1240.232426527429</v>
+        <v>1847.658563679934</v>
       </c>
       <c r="N14" t="n">
-        <v>1825.730431534031</v>
+        <v>1847.658563679934</v>
       </c>
       <c r="O14" t="n">
         <v>2365.64850507718</v>
@@ -5305,25 +5305,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2212.917427024876</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>1992.064451269826</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>1736.360107800334</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.64850507718</v>
+        <v>1394.253298503852</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.64850507718</v>
+        <v>1394.253298503852</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.64850507718</v>
+        <v>1235.832369479728</v>
       </c>
       <c r="Y14" t="n">
-        <v>2365.64850507718</v>
+        <v>1235.832369479728</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154361</v>
+        <v>418.2682280808125</v>
       </c>
       <c r="L15" t="n">
-        <v>599.7454389330993</v>
+        <v>970.7006969123684</v>
       </c>
       <c r="M15" t="n">
-        <v>1152.632801150478</v>
+        <v>997.092092799506</v>
       </c>
       <c r="N15" t="n">
-        <v>1738.13080615708</v>
+        <v>1582.590097806108</v>
       </c>
       <c r="O15" t="n">
-        <v>2323.628811163682</v>
+        <v>1582.590097806108</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.628811163682</v>
+        <v>2048.777158475793</v>
       </c>
       <c r="Q15" t="n">
         <v>2323.628811163682</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>663.5028155081878</v>
+        <v>964.0379258438686</v>
       </c>
       <c r="C16" t="n">
-        <v>493.2976975741771</v>
+        <v>793.8328079098578</v>
       </c>
       <c r="D16" t="n">
-        <v>493.2976975741771</v>
+        <v>638.1996948123726</v>
       </c>
       <c r="E16" t="n">
-        <v>493.2976975741771</v>
+        <v>482.6408826715751</v>
       </c>
       <c r="F16" t="n">
-        <v>493.2976975741771</v>
+        <v>325.3149478845481</v>
       </c>
       <c r="G16" t="n">
         <v>325.3149478845481</v>
@@ -5460,28 +5460,28 @@
         <v>1193.569293598826</v>
       </c>
       <c r="R16" t="n">
-        <v>1081.867128115379</v>
+        <v>1193.569293598826</v>
       </c>
       <c r="S16" t="n">
-        <v>1081.867128115379</v>
+        <v>995.4813022572309</v>
       </c>
       <c r="T16" t="n">
-        <v>1081.867128115379</v>
+        <v>995.4813022572309</v>
       </c>
       <c r="U16" t="n">
-        <v>929.4821606873636</v>
+        <v>995.4813022572309</v>
       </c>
       <c r="V16" t="n">
-        <v>663.5028155081878</v>
+        <v>995.4813022572309</v>
       </c>
       <c r="W16" t="n">
-        <v>663.5028155081878</v>
+        <v>995.4813022572309</v>
       </c>
       <c r="X16" t="n">
-        <v>663.5028155081878</v>
+        <v>995.4813022572309</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.5028155081878</v>
+        <v>995.4813022572309</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1677.696737088651</v>
+        <v>2130.212621279071</v>
       </c>
       <c r="C17" t="n">
-        <v>1284.521235591581</v>
+        <v>1737.037119782002</v>
       </c>
       <c r="D17" t="n">
-        <v>899.0801068082492</v>
+        <v>1737.037119782002</v>
       </c>
       <c r="E17" t="n">
-        <v>496.4965819247937</v>
+        <v>1334.453594898546</v>
       </c>
       <c r="F17" t="n">
-        <v>79.60214345477146</v>
+        <v>917.5591564285239</v>
       </c>
       <c r="G17" t="n">
-        <v>79.60214345477146</v>
+        <v>505.152036109283</v>
       </c>
       <c r="H17" t="n">
-        <v>79.60214345477146</v>
+        <v>188.807634593585</v>
       </c>
       <c r="I17" t="n">
         <v>79.60214345477146</v>
       </c>
       <c r="J17" t="n">
-        <v>287.1092503151863</v>
+        <v>287.109250315186</v>
       </c>
       <c r="K17" t="n">
-        <v>740.2984558531755</v>
+        <v>740.2984558531753</v>
       </c>
       <c r="L17" t="n">
         <v>1350.490674728982</v>
@@ -5557,10 +5557,10 @@
         <v>2641.821722172079</v>
       </c>
       <c r="X17" t="n">
-        <v>2252.369117105136</v>
+        <v>2641.821722172079</v>
       </c>
       <c r="Y17" t="n">
-        <v>2078.191482800048</v>
+        <v>2245.33101309268</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J18" t="n">
-        <v>79.60214345477146</v>
+        <v>162.7746999257021</v>
       </c>
       <c r="K18" t="n">
-        <v>79.60214345477146</v>
+        <v>546.50032123196</v>
       </c>
       <c r="L18" t="n">
-        <v>221.7150041549684</v>
+        <v>1116.104119517371</v>
       </c>
       <c r="M18" t="n">
-        <v>949.8886060006707</v>
+        <v>1844.277721363073</v>
       </c>
       <c r="N18" t="n">
-        <v>968.4295074139714</v>
+        <v>1862.818622776374</v>
       </c>
       <c r="O18" t="n">
-        <v>1579.228908959864</v>
+        <v>1865.337058431286</v>
       </c>
       <c r="P18" t="n">
-        <v>2060.517582431528</v>
+        <v>2346.62573190295</v>
       </c>
       <c r="Q18" t="n">
-        <v>2345.464263347374</v>
+        <v>2346.62573190295</v>
       </c>
       <c r="R18" t="n">
         <v>2346.62573190295</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>295.8721571668264</v>
+        <v>550.2922102530887</v>
       </c>
       <c r="C19" t="n">
-        <v>295.8721571668264</v>
+        <v>380.0870923190779</v>
       </c>
       <c r="D19" t="n">
-        <v>236.9280782417985</v>
+        <v>380.0870923190779</v>
       </c>
       <c r="E19" t="n">
-        <v>236.9280782417985</v>
+        <v>380.0870923190779</v>
       </c>
       <c r="F19" t="n">
-        <v>79.60214345477146</v>
+        <v>247.5172454215262</v>
       </c>
       <c r="G19" t="n">
         <v>79.60214345477146</v>
@@ -5697,28 +5697,28 @@
         <v>1286.899877594367</v>
       </c>
       <c r="R19" t="n">
-        <v>1178.239399723066</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="S19" t="n">
-        <v>981.3303236973795</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="T19" t="n">
-        <v>747.0595210373034</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="U19" t="n">
-        <v>747.0595210373034</v>
+        <v>1001.479574123566</v>
       </c>
       <c r="V19" t="n">
-        <v>481.0801758581276</v>
+        <v>735.50022894439</v>
       </c>
       <c r="W19" t="n">
-        <v>481.0801758581276</v>
+        <v>735.50022894439</v>
       </c>
       <c r="X19" t="n">
-        <v>481.0801758581276</v>
+        <v>735.50022894439</v>
       </c>
       <c r="Y19" t="n">
-        <v>481.0801758581276</v>
+        <v>735.50022894439</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1455.38366231434</v>
+        <v>2273.375559745097</v>
       </c>
       <c r="C20" t="n">
-        <v>1062.208160817271</v>
+        <v>1880.200058248028</v>
       </c>
       <c r="D20" t="n">
-        <v>676.7670320339384</v>
+        <v>1494.758929464695</v>
       </c>
       <c r="E20" t="n">
-        <v>274.183507150483</v>
+        <v>1092.17540458124</v>
       </c>
       <c r="F20" t="n">
-        <v>79.60214345477146</v>
+        <v>675.2809661112177</v>
       </c>
       <c r="G20" t="n">
-        <v>79.60214345477146</v>
+        <v>262.8738457919767</v>
       </c>
       <c r="H20" t="n">
         <v>79.60214345477146</v>
@@ -5752,7 +5752,7 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J20" t="n">
-        <v>287.1092503151867</v>
+        <v>287.1092503151863</v>
       </c>
       <c r="K20" t="n">
         <v>740.2984558531757</v>
@@ -5761,13 +5761,13 @@
         <v>1350.490674728982</v>
       </c>
       <c r="M20" t="n">
-        <v>2026.534112545565</v>
+        <v>2026.534112545566</v>
       </c>
       <c r="N20" t="n">
-        <v>2686.492158171468</v>
+        <v>2686.492158171469</v>
       </c>
       <c r="O20" t="n">
-        <v>3251.314199168486</v>
+        <v>3251.314199168487</v>
       </c>
       <c r="P20" t="n">
         <v>3706.000616985577</v>
@@ -5782,22 +5782,22 @@
         <v>3830.812654634549</v>
       </c>
       <c r="T20" t="n">
-        <v>3610.619845250254</v>
+        <v>3830.812654634549</v>
       </c>
       <c r="U20" t="n">
-        <v>3354.927566500273</v>
+        <v>3830.812654634549</v>
       </c>
       <c r="V20" t="n">
-        <v>3012.820757203792</v>
+        <v>3830.812654634549</v>
       </c>
       <c r="W20" t="n">
-        <v>2641.821722172079</v>
+        <v>3459.813619602836</v>
       </c>
       <c r="X20" t="n">
-        <v>2252.369117105136</v>
+        <v>3070.361014535893</v>
       </c>
       <c r="Y20" t="n">
-        <v>1855.878408025737</v>
+        <v>2673.870305456494</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J21" t="n">
-        <v>230.1545231602169</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="K21" t="n">
-        <v>397.2850977763832</v>
+        <v>463.3277647610294</v>
       </c>
       <c r="L21" t="n">
-        <v>966.8888960617942</v>
+        <v>463.3277647610294</v>
       </c>
       <c r="M21" t="n">
-        <v>975.8275974519964</v>
+        <v>472.2664661512317</v>
       </c>
       <c r="N21" t="n">
-        <v>1734.664861801481</v>
+        <v>1231.103730500716</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.464263347374</v>
+        <v>1841.903132046609</v>
       </c>
       <c r="P21" t="n">
-        <v>2345.464263347374</v>
+        <v>2323.191805518273</v>
       </c>
       <c r="Q21" t="n">
-        <v>2345.464263347374</v>
+        <v>2346.62573190295</v>
       </c>
       <c r="R21" t="n">
         <v>2346.62573190295</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>997.8156504091978</v>
+        <v>582.1912332152475</v>
       </c>
       <c r="C22" t="n">
-        <v>997.8156504091978</v>
+        <v>582.1912332152475</v>
       </c>
       <c r="D22" t="n">
-        <v>842.1825373117126</v>
+        <v>560.4019923493507</v>
       </c>
       <c r="E22" t="n">
-        <v>686.6237251709151</v>
+        <v>404.8431802085532</v>
       </c>
       <c r="F22" t="n">
-        <v>529.297790383888</v>
+        <v>247.5172454215262</v>
       </c>
       <c r="G22" t="n">
-        <v>361.3826884171333</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="H22" t="n">
-        <v>208.9177282082285</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="I22" t="n">
-        <v>86.01651190902901</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="J22" t="n">
         <v>79.60214345477146</v>
@@ -5931,31 +5931,31 @@
         <v>1255.659892627853</v>
       </c>
       <c r="Q22" t="n">
-        <v>1286.899877594366</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="R22" t="n">
-        <v>1286.899877594366</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="S22" t="n">
-        <v>1286.899877594366</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="T22" t="n">
-        <v>1286.899877594366</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="U22" t="n">
-        <v>1286.899877594366</v>
+        <v>1001.479574123566</v>
       </c>
       <c r="V22" t="n">
-        <v>1286.899877594366</v>
+        <v>1001.479574123566</v>
       </c>
       <c r="W22" t="n">
-        <v>1286.899877594366</v>
+        <v>1001.479574123566</v>
       </c>
       <c r="X22" t="n">
-        <v>1052.81955537735</v>
+        <v>767.3992519065488</v>
       </c>
       <c r="Y22" t="n">
-        <v>997.8156504091978</v>
+        <v>767.3992519065488</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1604.678180418364</v>
+        <v>2080.56326855264</v>
       </c>
       <c r="C23" t="n">
-        <v>1211.502678921295</v>
+        <v>1687.38776705557</v>
       </c>
       <c r="D23" t="n">
-        <v>826.0615501379625</v>
+        <v>1301.946638272238</v>
       </c>
       <c r="E23" t="n">
-        <v>423.478025254507</v>
+        <v>899.3631133887825</v>
       </c>
       <c r="F23" t="n">
-        <v>79.60214345477146</v>
+        <v>482.4686749187603</v>
       </c>
       <c r="G23" t="n">
         <v>79.60214345477146</v>
@@ -5989,10 +5989,10 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J23" t="n">
-        <v>287.1092503151863</v>
+        <v>287.109250315186</v>
       </c>
       <c r="K23" t="n">
-        <v>740.2984558531755</v>
+        <v>740.2984558531753</v>
       </c>
       <c r="L23" t="n">
         <v>1350.490674728982</v>
@@ -6019,22 +6019,22 @@
         <v>3980.107172738573</v>
       </c>
       <c r="T23" t="n">
-        <v>3759.914363354279</v>
+        <v>3980.107172738573</v>
       </c>
       <c r="U23" t="n">
-        <v>3504.222084604297</v>
+        <v>3980.107172738573</v>
       </c>
       <c r="V23" t="n">
-        <v>3162.115275307816</v>
+        <v>3638.000363442091</v>
       </c>
       <c r="W23" t="n">
-        <v>2791.116240276103</v>
+        <v>3267.001328410379</v>
       </c>
       <c r="X23" t="n">
-        <v>2401.66363520916</v>
+        <v>2877.548723343436</v>
       </c>
       <c r="Y23" t="n">
-        <v>2005.172926129761</v>
+        <v>2481.058014264037</v>
       </c>
     </row>
     <row r="24">
@@ -6071,25 +6071,25 @@
         <v>79.60214345477146</v>
       </c>
       <c r="K24" t="n">
-        <v>247.653995606294</v>
+        <v>463.3277647610294</v>
       </c>
       <c r="L24" t="n">
-        <v>247.653995606294</v>
+        <v>1032.93156304644</v>
       </c>
       <c r="M24" t="n">
-        <v>975.8275974519963</v>
+        <v>1041.870264436643</v>
       </c>
       <c r="N24" t="n">
-        <v>1734.664861801481</v>
+        <v>1060.411165849943</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.464263347374</v>
+        <v>1580.39037751544</v>
       </c>
       <c r="P24" t="n">
-        <v>2345.464263347374</v>
+        <v>2061.679050987104</v>
       </c>
       <c r="Q24" t="n">
-        <v>2345.464263347374</v>
+        <v>2346.62573190295</v>
       </c>
       <c r="R24" t="n">
         <v>2346.62573190295</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>336.2193732207865</v>
+        <v>660.6381949941674</v>
       </c>
       <c r="C25" t="n">
-        <v>336.2193732207865</v>
+        <v>490.4330770601566</v>
       </c>
       <c r="D25" t="n">
-        <v>336.2193732207865</v>
+        <v>334.7999639626714</v>
       </c>
       <c r="E25" t="n">
-        <v>180.660561079989</v>
+        <v>179.2411518218739</v>
       </c>
       <c r="F25" t="n">
-        <v>180.660561079989</v>
+        <v>179.2411518218739</v>
       </c>
       <c r="G25" t="n">
-        <v>180.660561079989</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="H25" t="n">
         <v>79.60214345477146</v>
@@ -6171,28 +6171,28 @@
         <v>1286.899877594367</v>
       </c>
       <c r="R25" t="n">
-        <v>1286.899877594367</v>
+        <v>1178.239399723066</v>
       </c>
       <c r="S25" t="n">
-        <v>1089.99080156868</v>
+        <v>1178.239399723066</v>
       </c>
       <c r="T25" t="n">
-        <v>855.7199989086042</v>
+        <v>943.9685970629897</v>
       </c>
       <c r="U25" t="n">
-        <v>570.2996954378034</v>
+        <v>943.9685970629897</v>
       </c>
       <c r="V25" t="n">
-        <v>570.2996954378034</v>
+        <v>943.9685970629897</v>
       </c>
       <c r="W25" t="n">
-        <v>570.2996954378034</v>
+        <v>660.6381949941674</v>
       </c>
       <c r="X25" t="n">
-        <v>336.2193732207865</v>
+        <v>660.6381949941674</v>
       </c>
       <c r="Y25" t="n">
-        <v>336.2193732207865</v>
+        <v>660.6381949941674</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2090.103857407892</v>
+        <v>2245.33101309268</v>
       </c>
       <c r="C26" t="n">
-        <v>1696.928355910822</v>
+        <v>1852.155511595611</v>
       </c>
       <c r="D26" t="n">
-        <v>1311.48722712749</v>
+        <v>1466.714382812278</v>
       </c>
       <c r="E26" t="n">
-        <v>908.9037022440347</v>
+        <v>1064.130857928823</v>
       </c>
       <c r="F26" t="n">
-        <v>492.0092637740124</v>
+        <v>647.2364194588007</v>
       </c>
       <c r="G26" t="n">
-        <v>79.60214345477148</v>
+        <v>234.8292991395597</v>
       </c>
       <c r="H26" t="n">
-        <v>79.60214345477148</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="I26" t="n">
-        <v>79.60214345477148</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="J26" t="n">
         <v>287.1092503151863</v>
       </c>
       <c r="K26" t="n">
-        <v>740.2984558531753</v>
+        <v>740.2984558531757</v>
       </c>
       <c r="L26" t="n">
         <v>1350.490674728982</v>
       </c>
       <c r="M26" t="n">
-        <v>2026.534112545565</v>
+        <v>2026.534112545566</v>
       </c>
       <c r="N26" t="n">
-        <v>2686.492158171468</v>
+        <v>2686.492158171469</v>
       </c>
       <c r="O26" t="n">
-        <v>3251.314199168486</v>
+        <v>3251.314199168487</v>
       </c>
       <c r="P26" t="n">
         <v>3706.000616985577</v>
       </c>
       <c r="Q26" t="n">
-        <v>3970.822435059803</v>
+        <v>3970.822435059802</v>
       </c>
       <c r="R26" t="n">
-        <v>3980.107172738574</v>
+        <v>3980.107172738573</v>
       </c>
       <c r="S26" t="n">
         <v>3830.812654634549</v>
       </c>
       <c r="T26" t="n">
-        <v>3610.619845250255</v>
+        <v>3610.619845250254</v>
       </c>
       <c r="U26" t="n">
-        <v>3354.927566500274</v>
+        <v>3354.927566500273</v>
       </c>
       <c r="V26" t="n">
-        <v>3012.820757203793</v>
+        <v>3012.820757203792</v>
       </c>
       <c r="W26" t="n">
-        <v>2641.82172217208</v>
+        <v>2641.821722172079</v>
       </c>
       <c r="X26" t="n">
-        <v>2252.369117105137</v>
+        <v>2641.821722172079</v>
       </c>
       <c r="Y26" t="n">
-        <v>2090.103857407892</v>
+        <v>2245.33101309268</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>115.069403146119</v>
       </c>
       <c r="I27" t="n">
-        <v>79.60214345477148</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="J27" t="n">
-        <v>79.60214345477148</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="K27" t="n">
-        <v>79.60214345477148</v>
+        <v>463.3277647610294</v>
       </c>
       <c r="L27" t="n">
-        <v>649.2059417401827</v>
+        <v>1032.93156304644</v>
       </c>
       <c r="M27" t="n">
-        <v>1377.379543585885</v>
+        <v>1041.870264436643</v>
       </c>
       <c r="N27" t="n">
-        <v>2136.21680793537</v>
+        <v>1254.537656885393</v>
       </c>
       <c r="O27" t="n">
-        <v>2138.735243590281</v>
+        <v>1865.337058431286</v>
       </c>
       <c r="P27" t="n">
-        <v>2345.464263347374</v>
+        <v>2346.62573190295</v>
       </c>
       <c r="Q27" t="n">
-        <v>2345.464263347374</v>
+        <v>2346.62573190295</v>
       </c>
       <c r="R27" t="n">
         <v>2346.62573190295</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>510.6014330603611</v>
+        <v>685.667525572494</v>
       </c>
       <c r="C28" t="n">
-        <v>510.6014330603611</v>
+        <v>515.4624076384832</v>
       </c>
       <c r="D28" t="n">
-        <v>354.9683199628759</v>
+        <v>359.829294540998</v>
       </c>
       <c r="E28" t="n">
-        <v>354.9683199628759</v>
+        <v>359.829294540998</v>
       </c>
       <c r="F28" t="n">
-        <v>354.9683199628759</v>
+        <v>202.503359753971</v>
       </c>
       <c r="G28" t="n">
-        <v>354.9683199628759</v>
+        <v>202.503359753971</v>
       </c>
       <c r="H28" t="n">
         <v>202.503359753971</v>
       </c>
       <c r="I28" t="n">
-        <v>79.60214345477148</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="J28" t="n">
-        <v>79.60214345477148</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="K28" t="n">
-        <v>200.0335734761013</v>
+        <v>200.0335734761012</v>
       </c>
       <c r="L28" t="n">
-        <v>413.5513028848649</v>
+        <v>413.5513028848648</v>
       </c>
       <c r="M28" t="n">
-        <v>651.917805636201</v>
+        <v>651.9178056362009</v>
       </c>
       <c r="N28" t="n">
-        <v>885.9441387711186</v>
+        <v>885.9441387711184</v>
       </c>
       <c r="O28" t="n">
         <v>1095.604825593285</v>
@@ -6420,16 +6420,16 @@
         <v>1178.239399723066</v>
       </c>
       <c r="V28" t="n">
-        <v>912.2600545438901</v>
+        <v>1178.239399723066</v>
       </c>
       <c r="W28" t="n">
-        <v>733.7134942437177</v>
+        <v>1178.239399723066</v>
       </c>
       <c r="X28" t="n">
-        <v>733.7134942437177</v>
+        <v>944.1590775060489</v>
       </c>
       <c r="Y28" t="n">
-        <v>510.6014330603611</v>
+        <v>721.0470163226922</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2515.653750062404</v>
+        <v>1786.902228227465</v>
       </c>
       <c r="C29" t="n">
-        <v>2122.478248565334</v>
+        <v>1393.726726730395</v>
       </c>
       <c r="D29" t="n">
-        <v>1737.037119782002</v>
+        <v>1008.285597947063</v>
       </c>
       <c r="E29" t="n">
-        <v>1334.453594898546</v>
+        <v>605.7020730636073</v>
       </c>
       <c r="F29" t="n">
-        <v>917.5591564285239</v>
+        <v>188.807634593585</v>
       </c>
       <c r="G29" t="n">
-        <v>505.152036109283</v>
+        <v>188.807634593585</v>
       </c>
       <c r="H29" t="n">
         <v>188.807634593585</v>
       </c>
       <c r="I29" t="n">
-        <v>79.60214345477148</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="J29" t="n">
-        <v>287.1092503151863</v>
+        <v>287.109250315186</v>
       </c>
       <c r="K29" t="n">
         <v>740.2984558531753</v>
@@ -6484,31 +6484,31 @@
         <v>3706.000616985577</v>
       </c>
       <c r="Q29" t="n">
-        <v>3970.822435059803</v>
+        <v>3970.822435059802</v>
       </c>
       <c r="R29" t="n">
-        <v>3980.107172738574</v>
+        <v>3980.107172738573</v>
       </c>
       <c r="S29" t="n">
-        <v>3980.107172738574</v>
+        <v>3830.812654634548</v>
       </c>
       <c r="T29" t="n">
-        <v>3759.914363354279</v>
+        <v>3610.619845250254</v>
       </c>
       <c r="U29" t="n">
-        <v>3759.914363354279</v>
+        <v>3354.927566500273</v>
       </c>
       <c r="V29" t="n">
-        <v>3417.807554057798</v>
+        <v>3344.339323116916</v>
       </c>
       <c r="W29" t="n">
-        <v>3417.807554057798</v>
+        <v>2973.340288085204</v>
       </c>
       <c r="X29" t="n">
-        <v>3028.354948990855</v>
+        <v>2583.88768301826</v>
       </c>
       <c r="Y29" t="n">
-        <v>2631.864239911456</v>
+        <v>2187.396973938861</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>115.069403146119</v>
       </c>
       <c r="I30" t="n">
-        <v>79.60214345477148</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="J30" t="n">
-        <v>79.60214345477148</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="K30" t="n">
-        <v>79.60214345477148</v>
+        <v>463.3277647610294</v>
       </c>
       <c r="L30" t="n">
-        <v>649.2059417401827</v>
+        <v>1032.93156304644</v>
       </c>
       <c r="M30" t="n">
-        <v>658.144643130385</v>
+        <v>1041.870264436643</v>
       </c>
       <c r="N30" t="n">
-        <v>1416.98190747987</v>
+        <v>1254.537656885393</v>
       </c>
       <c r="O30" t="n">
-        <v>2027.781309025762</v>
+        <v>1865.337058431286</v>
       </c>
       <c r="P30" t="n">
-        <v>2345.464263347374</v>
+        <v>2346.62573190295</v>
       </c>
       <c r="Q30" t="n">
-        <v>2345.464263347374</v>
+        <v>2346.62573190295</v>
       </c>
       <c r="R30" t="n">
         <v>2346.62573190295</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.60214345477148</v>
+        <v>217.8990242154916</v>
       </c>
       <c r="C31" t="n">
-        <v>79.60214345477148</v>
+        <v>217.8990242154916</v>
       </c>
       <c r="D31" t="n">
-        <v>79.60214345477148</v>
+        <v>217.8990242154916</v>
       </c>
       <c r="E31" t="n">
-        <v>79.60214345477148</v>
+        <v>217.8990242154916</v>
       </c>
       <c r="F31" t="n">
-        <v>79.60214345477148</v>
+        <v>217.8990242154916</v>
       </c>
       <c r="G31" t="n">
-        <v>79.60214345477148</v>
+        <v>217.8990242154916</v>
       </c>
       <c r="H31" t="n">
-        <v>79.60214345477148</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="I31" t="n">
-        <v>79.60214345477148</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="J31" t="n">
-        <v>79.60214345477148</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="K31" t="n">
-        <v>200.0335734761013</v>
+        <v>200.0335734761012</v>
       </c>
       <c r="L31" t="n">
-        <v>413.5513028848649</v>
+        <v>413.5513028848648</v>
       </c>
       <c r="M31" t="n">
-        <v>651.917805636201</v>
+        <v>651.9178056362009</v>
       </c>
       <c r="N31" t="n">
-        <v>885.9441387711186</v>
+        <v>885.9441387711184</v>
       </c>
       <c r="O31" t="n">
         <v>1095.604825593285</v>
@@ -6648,25 +6648,25 @@
         <v>1286.899877594367</v>
       </c>
       <c r="S31" t="n">
-        <v>1089.99080156868</v>
+        <v>1286.899877594367</v>
       </c>
       <c r="T31" t="n">
-        <v>855.7199989086042</v>
+        <v>1052.629074934291</v>
       </c>
       <c r="U31" t="n">
-        <v>855.7199989086042</v>
+        <v>767.2087714634897</v>
       </c>
       <c r="V31" t="n">
-        <v>771.2526253982517</v>
+        <v>501.2294262843139</v>
       </c>
       <c r="W31" t="n">
-        <v>487.9222233294294</v>
+        <v>217.8990242154916</v>
       </c>
       <c r="X31" t="n">
-        <v>487.9222233294294</v>
+        <v>217.8990242154916</v>
       </c>
       <c r="Y31" t="n">
-        <v>264.8101621460727</v>
+        <v>217.8990242154916</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1989.553820453568</v>
+        <v>2202.477268464827</v>
       </c>
       <c r="C32" t="n">
-        <v>1596.378318956498</v>
+        <v>1809.301766967757</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.937190173166</v>
+        <v>1423.860638184425</v>
       </c>
       <c r="E32" t="n">
-        <v>808.3536652897104</v>
+        <v>1021.27711330097</v>
       </c>
       <c r="F32" t="n">
-        <v>808.3536652897104</v>
+        <v>604.3826748309474</v>
       </c>
       <c r="G32" t="n">
-        <v>395.9465449704695</v>
+        <v>191.9755545117064</v>
       </c>
       <c r="H32" t="n">
         <v>79.60214345477146</v>
@@ -6700,10 +6700,10 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J32" t="n">
-        <v>287.1092503151863</v>
+        <v>287.109250315186</v>
       </c>
       <c r="K32" t="n">
-        <v>740.2984558531755</v>
+        <v>740.2984558531753</v>
       </c>
       <c r="L32" t="n">
         <v>1350.490674728982</v>
@@ -6727,25 +6727,25 @@
         <v>3980.107172738573</v>
       </c>
       <c r="S32" t="n">
-        <v>3830.812654634548</v>
+        <v>3980.107172738573</v>
       </c>
       <c r="T32" t="n">
-        <v>3610.619845250254</v>
+        <v>3759.914363354279</v>
       </c>
       <c r="U32" t="n">
-        <v>3354.927566500273</v>
+        <v>3759.914363354279</v>
       </c>
       <c r="V32" t="n">
-        <v>3012.820757203792</v>
+        <v>3759.914363354279</v>
       </c>
       <c r="W32" t="n">
-        <v>2641.821722172079</v>
+        <v>3388.915328322566</v>
       </c>
       <c r="X32" t="n">
-        <v>2386.044529532966</v>
+        <v>2999.462723255623</v>
       </c>
       <c r="Y32" t="n">
-        <v>1989.553820453568</v>
+        <v>2602.972014176224</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>79.60214345477146</v>
       </c>
       <c r="K33" t="n">
-        <v>79.60214345477146</v>
+        <v>463.3277647610294</v>
       </c>
       <c r="L33" t="n">
-        <v>79.60214345477146</v>
+        <v>1032.93156304644</v>
       </c>
       <c r="M33" t="n">
-        <v>807.7757453004738</v>
+        <v>1041.870264436643</v>
       </c>
       <c r="N33" t="n">
-        <v>1566.613009649958</v>
+        <v>1060.411165849943</v>
       </c>
       <c r="O33" t="n">
-        <v>2177.412411195851</v>
+        <v>1671.210567395836</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.62573190295</v>
+        <v>2152.4992408675</v>
       </c>
       <c r="Q33" t="n">
         <v>2346.62573190295</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>338.7394411626454</v>
+        <v>510.601433060361</v>
       </c>
       <c r="C34" t="n">
-        <v>247.5172454215262</v>
+        <v>510.601433060361</v>
       </c>
       <c r="D34" t="n">
-        <v>247.5172454215262</v>
+        <v>354.9683199628758</v>
       </c>
       <c r="E34" t="n">
-        <v>247.5172454215262</v>
+        <v>354.9683199628758</v>
       </c>
       <c r="F34" t="n">
-        <v>247.5172454215262</v>
+        <v>354.9683199628758</v>
       </c>
       <c r="G34" t="n">
-        <v>79.60214345477146</v>
+        <v>354.9683199628758</v>
       </c>
       <c r="H34" t="n">
-        <v>79.60214345477146</v>
+        <v>202.503359753971</v>
       </c>
       <c r="I34" t="n">
         <v>79.60214345477146</v>
@@ -6882,28 +6882,28 @@
         <v>1286.899877594367</v>
       </c>
       <c r="R34" t="n">
-        <v>1178.239399723066</v>
+        <v>1253.404600374595</v>
       </c>
       <c r="S34" t="n">
-        <v>981.3303236973795</v>
+        <v>1253.404600374595</v>
       </c>
       <c r="T34" t="n">
-        <v>747.0595210373034</v>
+        <v>1019.133797714519</v>
       </c>
       <c r="U34" t="n">
-        <v>747.0595210373034</v>
+        <v>733.7134942437177</v>
       </c>
       <c r="V34" t="n">
-        <v>747.0595210373034</v>
+        <v>733.7134942437177</v>
       </c>
       <c r="W34" t="n">
-        <v>747.0595210373034</v>
+        <v>733.7134942437177</v>
       </c>
       <c r="X34" t="n">
-        <v>747.0595210373034</v>
+        <v>733.7134942437177</v>
       </c>
       <c r="Y34" t="n">
-        <v>523.9474598539467</v>
+        <v>510.601433060361</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2122.478248565334</v>
+        <v>1455.38366231434</v>
       </c>
       <c r="C35" t="n">
-        <v>2122.478248565334</v>
+        <v>1307.487603362637</v>
       </c>
       <c r="D35" t="n">
-        <v>1737.037119782002</v>
+        <v>922.0464745793051</v>
       </c>
       <c r="E35" t="n">
-        <v>1334.453594898546</v>
+        <v>922.0464745793051</v>
       </c>
       <c r="F35" t="n">
-        <v>917.5591564285239</v>
+        <v>505.152036109283</v>
       </c>
       <c r="G35" t="n">
         <v>505.152036109283</v>
@@ -6934,55 +6934,55 @@
         <v>188.807634593585</v>
       </c>
       <c r="I35" t="n">
-        <v>79.60214345477148</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="J35" t="n">
         <v>287.1092503151863</v>
       </c>
       <c r="K35" t="n">
-        <v>740.2984558531753</v>
+        <v>740.2984558531757</v>
       </c>
       <c r="L35" t="n">
         <v>1350.490674728982</v>
       </c>
       <c r="M35" t="n">
-        <v>2026.534112545565</v>
+        <v>2026.534112545566</v>
       </c>
       <c r="N35" t="n">
-        <v>2686.492158171468</v>
+        <v>2686.492158171469</v>
       </c>
       <c r="O35" t="n">
-        <v>3251.314199168486</v>
+        <v>3251.314199168487</v>
       </c>
       <c r="P35" t="n">
         <v>3706.000616985577</v>
       </c>
       <c r="Q35" t="n">
-        <v>3970.822435059803</v>
+        <v>3970.822435059802</v>
       </c>
       <c r="R35" t="n">
-        <v>3980.107172738574</v>
+        <v>3980.107172738573</v>
       </c>
       <c r="S35" t="n">
         <v>3830.812654634549</v>
       </c>
       <c r="T35" t="n">
-        <v>3830.812654634549</v>
+        <v>3610.619845250254</v>
       </c>
       <c r="U35" t="n">
-        <v>3632.569547684324</v>
+        <v>3354.927566500273</v>
       </c>
       <c r="V35" t="n">
-        <v>3290.462738387842</v>
+        <v>3012.820757203792</v>
       </c>
       <c r="W35" t="n">
-        <v>2919.46370335613</v>
+        <v>2641.821722172079</v>
       </c>
       <c r="X35" t="n">
-        <v>2919.46370335613</v>
+        <v>2252.369117105136</v>
       </c>
       <c r="Y35" t="n">
-        <v>2522.972994276731</v>
+        <v>1855.878408025737</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>115.069403146119</v>
       </c>
       <c r="I36" t="n">
-        <v>79.60214345477148</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="J36" t="n">
-        <v>79.60214345477148</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="K36" t="n">
         <v>463.3277647610294</v>
       </c>
       <c r="L36" t="n">
-        <v>463.3277647610294</v>
+        <v>1032.93156304644</v>
       </c>
       <c r="M36" t="n">
-        <v>495.7003925359083</v>
+        <v>1235.996755472092</v>
       </c>
       <c r="N36" t="n">
         <v>1254.537656885393</v>
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>867.4210562429894</v>
+        <v>527.7443965077528</v>
       </c>
       <c r="C37" t="n">
-        <v>697.2159383089786</v>
+        <v>527.7443965077528</v>
       </c>
       <c r="D37" t="n">
-        <v>541.5828252114934</v>
+        <v>527.7443965077528</v>
       </c>
       <c r="E37" t="n">
-        <v>404.8431802085533</v>
+        <v>527.7443965077528</v>
       </c>
       <c r="F37" t="n">
-        <v>247.5172454215262</v>
+        <v>370.4184617207257</v>
       </c>
       <c r="G37" t="n">
-        <v>79.60214345477148</v>
+        <v>202.503359753971</v>
       </c>
       <c r="H37" t="n">
-        <v>79.60214345477148</v>
+        <v>202.503359753971</v>
       </c>
       <c r="I37" t="n">
-        <v>79.60214345477148</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="J37" t="n">
-        <v>79.60214345477148</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="K37" t="n">
-        <v>200.0335734761013</v>
+        <v>200.0335734761012</v>
       </c>
       <c r="L37" t="n">
-        <v>413.5513028848649</v>
+        <v>413.5513028848648</v>
       </c>
       <c r="M37" t="n">
-        <v>651.917805636201</v>
+        <v>651.9178056362009</v>
       </c>
       <c r="N37" t="n">
-        <v>885.9441387711186</v>
+        <v>885.9441387711184</v>
       </c>
       <c r="O37" t="n">
         <v>1095.604825593285</v>
@@ -7122,25 +7122,25 @@
         <v>1286.899877594367</v>
       </c>
       <c r="S37" t="n">
-        <v>1286.899877594367</v>
+        <v>1170.144798599428</v>
       </c>
       <c r="T37" t="n">
-        <v>1052.629074934291</v>
+        <v>1170.144798599428</v>
       </c>
       <c r="U37" t="n">
-        <v>1052.629074934291</v>
+        <v>1170.144798599428</v>
       </c>
       <c r="V37" t="n">
-        <v>1052.629074934291</v>
+        <v>1170.144798599428</v>
       </c>
       <c r="W37" t="n">
-        <v>1052.629074934291</v>
+        <v>1170.144798599428</v>
       </c>
       <c r="X37" t="n">
-        <v>1052.629074934291</v>
+        <v>936.0644763824107</v>
       </c>
       <c r="Y37" t="n">
-        <v>1052.629074934291</v>
+        <v>712.952415199054</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2021.007130140258</v>
+        <v>2053.182750360802</v>
       </c>
       <c r="C38" t="n">
-        <v>1627.831628643188</v>
+        <v>1660.007248863733</v>
       </c>
       <c r="D38" t="n">
-        <v>1627.831628643188</v>
+        <v>1311.48722712749</v>
       </c>
       <c r="E38" t="n">
-        <v>1225.248103759733</v>
+        <v>908.9037022440347</v>
       </c>
       <c r="F38" t="n">
-        <v>808.3536652897104</v>
+        <v>492.0092637740124</v>
       </c>
       <c r="G38" t="n">
-        <v>395.9465449704695</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="H38" t="n">
         <v>79.60214345477146</v>
@@ -7174,7 +7174,7 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J38" t="n">
-        <v>287.1092503151862</v>
+        <v>287.1092503151863</v>
       </c>
       <c r="K38" t="n">
         <v>740.2984558531755</v>
@@ -7189,7 +7189,7 @@
         <v>2686.492158171468</v>
       </c>
       <c r="O38" t="n">
-        <v>3251.314199168487</v>
+        <v>3251.314199168486</v>
       </c>
       <c r="P38" t="n">
         <v>3706.000616985577</v>
@@ -7201,25 +7201,25 @@
         <v>3980.107172738573</v>
       </c>
       <c r="S38" t="n">
-        <v>3830.812654634549</v>
+        <v>3830.812654634548</v>
       </c>
       <c r="T38" t="n">
         <v>3610.619845250254</v>
       </c>
       <c r="U38" t="n">
-        <v>3354.927566500273</v>
+        <v>3610.619845250254</v>
       </c>
       <c r="V38" t="n">
-        <v>3012.820757203792</v>
+        <v>3610.619845250254</v>
       </c>
       <c r="W38" t="n">
-        <v>3012.820757203792</v>
+        <v>3239.620810218541</v>
       </c>
       <c r="X38" t="n">
-        <v>2817.992584931053</v>
+        <v>2850.168205151598</v>
       </c>
       <c r="Y38" t="n">
-        <v>2421.501875851654</v>
+        <v>2453.677496072199</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>79.60214345477146</v>
       </c>
       <c r="J39" t="n">
-        <v>230.154523160217</v>
+        <v>79.60214345477146</v>
       </c>
       <c r="K39" t="n">
-        <v>418.3465602570669</v>
+        <v>463.3277647610294</v>
       </c>
       <c r="L39" t="n">
-        <v>987.9503585424781</v>
+        <v>1032.93156304644</v>
       </c>
       <c r="M39" t="n">
-        <v>1716.12396038818</v>
+        <v>1041.870264436643</v>
       </c>
       <c r="N39" t="n">
-        <v>1734.664861801481</v>
+        <v>1060.411165849943</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.464263347374</v>
+        <v>1580.39037751544</v>
       </c>
       <c r="P39" t="n">
-        <v>2345.464263347374</v>
+        <v>2061.679050987104</v>
       </c>
       <c r="Q39" t="n">
-        <v>2345.464263347374</v>
+        <v>2346.62573190295</v>
       </c>
       <c r="R39" t="n">
         <v>2346.62573190295</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>407.1331961758093</v>
+        <v>452.1698268755676</v>
       </c>
       <c r="C40" t="n">
-        <v>236.9280782417985</v>
+        <v>452.1698268755676</v>
       </c>
       <c r="D40" t="n">
-        <v>236.9280782417985</v>
+        <v>296.5367137780823</v>
       </c>
       <c r="E40" t="n">
-        <v>236.9280782417985</v>
+        <v>296.5367137780823</v>
       </c>
       <c r="F40" t="n">
-        <v>79.60214345477146</v>
+        <v>296.5367137780823</v>
       </c>
       <c r="G40" t="n">
-        <v>79.60214345477146</v>
+        <v>128.6216118113276</v>
       </c>
       <c r="H40" t="n">
         <v>79.60214345477146</v>
@@ -7338,13 +7338,13 @@
         <v>200.0335734761012</v>
       </c>
       <c r="L40" t="n">
-        <v>413.5513028848649</v>
+        <v>413.5513028848648</v>
       </c>
       <c r="M40" t="n">
-        <v>651.917805636201</v>
+        <v>651.9178056362009</v>
       </c>
       <c r="N40" t="n">
-        <v>885.9441387711186</v>
+        <v>885.9441387711184</v>
       </c>
       <c r="O40" t="n">
         <v>1095.604825593285</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>825.9296003819453</v>
+        <v>1169.239993433552</v>
       </c>
       <c r="C41" t="n">
-        <v>432.7540988848759</v>
+        <v>776.0644919364826</v>
       </c>
       <c r="D41" t="n">
-        <v>47.31297010154361</v>
+        <v>776.0644919364826</v>
       </c>
       <c r="E41" t="n">
-        <v>47.31297010154361</v>
+        <v>776.0644919364826</v>
       </c>
       <c r="F41" t="n">
-        <v>47.31297010154361</v>
+        <v>776.0644919364826</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154361</v>
+        <v>363.6573716172416</v>
       </c>
       <c r="H41" t="n">
         <v>47.31297010154361</v>
@@ -7414,49 +7414,49 @@
         <v>254.8200769619583</v>
       </c>
       <c r="K41" t="n">
-        <v>708.0092824999475</v>
+        <v>708.0092824999474</v>
       </c>
       <c r="L41" t="n">
-        <v>1215.328459073561</v>
+        <v>708.0092824999474</v>
       </c>
       <c r="M41" t="n">
-        <v>1800.826464080163</v>
+        <v>1072.033490510076</v>
       </c>
       <c r="N41" t="n">
-        <v>1800.826464080163</v>
+        <v>1072.033490510076</v>
       </c>
       <c r="O41" t="n">
-        <v>2365.648505077181</v>
+        <v>1636.855531507094</v>
       </c>
       <c r="P41" t="n">
-        <v>2365.648505077181</v>
+        <v>2091.541949324185</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.648505077181</v>
+        <v>2356.363767398409</v>
       </c>
       <c r="R41" t="n">
         <v>2365.648505077181</v>
       </c>
       <c r="S41" t="n">
-        <v>2216.353986973156</v>
+        <v>2365.648505077181</v>
       </c>
       <c r="T41" t="n">
-        <v>1996.161177588862</v>
+        <v>2145.455695692886</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.914090204453</v>
+        <v>1940.733774176661</v>
       </c>
       <c r="V41" t="n">
-        <v>1993.914090204453</v>
+        <v>1940.733774176661</v>
       </c>
       <c r="W41" t="n">
-        <v>1622.915055172741</v>
+        <v>1569.734739144949</v>
       </c>
       <c r="X41" t="n">
-        <v>1622.915055172741</v>
+        <v>1569.734739144949</v>
       </c>
       <c r="Y41" t="n">
-        <v>1226.424346093342</v>
+        <v>1569.734739144949</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>167.1729547984784</v>
       </c>
       <c r="H42" t="n">
-        <v>82.78022979289118</v>
+        <v>82.78022979289119</v>
       </c>
       <c r="I42" t="n">
         <v>47.31297010154361</v>
@@ -7493,13 +7493,13 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K42" t="n">
-        <v>47.31297010154361</v>
+        <v>431.0385914078016</v>
       </c>
       <c r="L42" t="n">
-        <v>616.9167683869548</v>
+        <v>1000.642389693213</v>
       </c>
       <c r="M42" t="n">
-        <v>662.0518750648531</v>
+        <v>1009.581091083415</v>
       </c>
       <c r="N42" t="n">
         <v>1247.549880071455</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1759.555178477185</v>
+        <v>514.0879187719428</v>
       </c>
       <c r="C43" t="n">
-        <v>1589.350060543175</v>
+        <v>514.0879187719428</v>
       </c>
       <c r="D43" t="n">
-        <v>1433.716947445689</v>
+        <v>367.6930322772032</v>
       </c>
       <c r="E43" t="n">
-        <v>1433.716947445689</v>
+        <v>367.6930322772032</v>
       </c>
       <c r="F43" t="n">
-        <v>1433.716947445689</v>
+        <v>367.6930322772032</v>
       </c>
       <c r="G43" t="n">
-        <v>1433.716947445689</v>
+        <v>199.7779303104485</v>
       </c>
       <c r="H43" t="n">
-        <v>1281.251987236785</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I43" t="n">
-        <v>1158.350770937585</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J43" t="n">
-        <v>1158.350770937585</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K43" t="n">
-        <v>1278.782200958915</v>
+        <v>167.7444001228733</v>
       </c>
       <c r="L43" t="n">
-        <v>1492.299930367679</v>
+        <v>381.2621295316369</v>
       </c>
       <c r="M43" t="n">
-        <v>1730.666433119015</v>
+        <v>619.6286322829731</v>
       </c>
       <c r="N43" t="n">
-        <v>1964.692766253932</v>
+        <v>853.6549654178906</v>
       </c>
       <c r="O43" t="n">
-        <v>2174.353453076099</v>
+        <v>1063.315652240057</v>
       </c>
       <c r="P43" t="n">
-        <v>2334.408520110667</v>
+        <v>1223.370719274625</v>
       </c>
       <c r="Q43" t="n">
-        <v>2365.648505077181</v>
+        <v>1254.610704241139</v>
       </c>
       <c r="R43" t="n">
-        <v>2256.98802720588</v>
+        <v>1254.610704241139</v>
       </c>
       <c r="S43" t="n">
-        <v>2256.98802720588</v>
+        <v>1254.610704241139</v>
       </c>
       <c r="T43" t="n">
-        <v>2022.717224545804</v>
+        <v>1254.610704241139</v>
       </c>
       <c r="U43" t="n">
-        <v>2022.717224545804</v>
+        <v>1254.610704241139</v>
       </c>
       <c r="V43" t="n">
-        <v>1759.555178477185</v>
+        <v>1254.610704241139</v>
       </c>
       <c r="W43" t="n">
-        <v>1759.555178477185</v>
+        <v>971.2803021723164</v>
       </c>
       <c r="X43" t="n">
-        <v>1759.555178477185</v>
+        <v>737.1999799552995</v>
       </c>
       <c r="Y43" t="n">
-        <v>1759.555178477185</v>
+        <v>514.0879187719428</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>971.5091064430535</v>
+        <v>1279.198053774262</v>
       </c>
       <c r="C44" t="n">
-        <v>971.5091064430535</v>
+        <v>1279.198053774262</v>
       </c>
       <c r="D44" t="n">
-        <v>971.5091064430535</v>
+        <v>1279.198053774262</v>
       </c>
       <c r="E44" t="n">
-        <v>568.9255815595981</v>
+        <v>876.6145288908068</v>
       </c>
       <c r="F44" t="n">
-        <v>568.9255815595981</v>
+        <v>459.7200904207846</v>
       </c>
       <c r="G44" t="n">
-        <v>156.5184612403571</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H44" t="n">
-        <v>156.5184612403571</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I44" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154361</v>
+        <v>155.9652845193845</v>
       </c>
       <c r="K44" t="n">
-        <v>500.5021756395329</v>
+        <v>609.1544900573737</v>
       </c>
       <c r="L44" t="n">
-        <v>1086.000180646135</v>
+        <v>1194.652495063976</v>
       </c>
       <c r="M44" t="n">
-        <v>1086.000180646135</v>
+        <v>1780.150500070578</v>
       </c>
       <c r="N44" t="n">
-        <v>1086.000180646135</v>
+        <v>2365.648505077181</v>
       </c>
       <c r="O44" t="n">
-        <v>1650.822221643153</v>
+        <v>2365.648505077181</v>
       </c>
       <c r="P44" t="n">
-        <v>2105.508639460244</v>
+        <v>2365.648505077181</v>
       </c>
       <c r="Q44" t="n">
-        <v>2356.363767398409</v>
+        <v>2365.648505077181</v>
       </c>
       <c r="R44" t="n">
         <v>2365.648505077181</v>
       </c>
       <c r="S44" t="n">
-        <v>2216.353986973156</v>
+        <v>2266.880607269668</v>
       </c>
       <c r="T44" t="n">
-        <v>2216.353986973156</v>
+        <v>2046.687797885374</v>
       </c>
       <c r="U44" t="n">
-        <v>2216.353986973156</v>
+        <v>2046.687797885374</v>
       </c>
       <c r="V44" t="n">
-        <v>1874.247177676675</v>
+        <v>2046.687797885374</v>
       </c>
       <c r="W44" t="n">
-        <v>1874.247177676675</v>
+        <v>1675.688762853661</v>
       </c>
       <c r="X44" t="n">
-        <v>1768.494561233849</v>
+        <v>1675.688762853661</v>
       </c>
       <c r="Y44" t="n">
-        <v>1372.00385215445</v>
+        <v>1279.198053774262</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>167.1729547984784</v>
       </c>
       <c r="H45" t="n">
-        <v>82.78022979289118</v>
+        <v>82.78022979289119</v>
       </c>
       <c r="I45" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J45" t="n">
-        <v>197.8653498069891</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K45" t="n">
-        <v>197.8653498069891</v>
+        <v>431.0385914078016</v>
       </c>
       <c r="L45" t="n">
-        <v>557.8425435299147</v>
+        <v>1000.642389693213</v>
       </c>
       <c r="M45" t="n">
-        <v>1143.340548536517</v>
+        <v>1586.140394699815</v>
       </c>
       <c r="N45" t="n">
-        <v>1728.838553543119</v>
+        <v>1604.681296113115</v>
       </c>
       <c r="O45" t="n">
-        <v>2314.336558549722</v>
+        <v>1833.047885078058</v>
       </c>
       <c r="P45" t="n">
         <v>2314.336558549722</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.31297010154361</v>
+        <v>199.7779303104485</v>
       </c>
       <c r="C46" t="n">
-        <v>47.31297010154361</v>
+        <v>199.7779303104485</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154361</v>
+        <v>199.7779303104485</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154361</v>
+        <v>199.7779303104485</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154361</v>
+        <v>199.7779303104485</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154361</v>
+        <v>199.7779303104485</v>
       </c>
       <c r="H46" t="n">
         <v>47.31297010154361</v>
@@ -7809,16 +7809,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
-        <v>167.7444001228734</v>
+        <v>167.7444001228733</v>
       </c>
       <c r="L46" t="n">
-        <v>381.262129531637</v>
+        <v>381.2621295316369</v>
       </c>
       <c r="M46" t="n">
-        <v>619.6286322829732</v>
+        <v>619.6286322829731</v>
       </c>
       <c r="N46" t="n">
-        <v>853.6549654178907</v>
+        <v>853.6549654178906</v>
       </c>
       <c r="O46" t="n">
         <v>1063.315652240057</v>
@@ -7833,25 +7833,25 @@
         <v>1145.950226369838</v>
       </c>
       <c r="S46" t="n">
-        <v>949.0411503441517</v>
+        <v>985.4483816205012</v>
       </c>
       <c r="T46" t="n">
-        <v>882.0430208203427</v>
+        <v>751.1775789604251</v>
       </c>
       <c r="U46" t="n">
-        <v>596.6227173495417</v>
+        <v>465.7572754896242</v>
       </c>
       <c r="V46" t="n">
-        <v>330.643372170366</v>
+        <v>199.7779303104485</v>
       </c>
       <c r="W46" t="n">
-        <v>47.31297010154361</v>
+        <v>199.7779303104485</v>
       </c>
       <c r="X46" t="n">
-        <v>47.31297010154361</v>
+        <v>199.7779303104485</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.31297010154361</v>
+        <v>199.7779303104485</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>394.3609707612346</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8060,7 +8060,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>124.0799396297078</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8069,7 +8069,7 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>474.5348277078255</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8078,7 +8078,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8224,10 +8224,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>412.8955348410459</v>
       </c>
       <c r="N5" t="n">
-        <v>540.0265064010113</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
         <v>149.5638374240964</v>
@@ -8297,25 +8297,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>236.0990445535295</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>158.5810024966814</v>
       </c>
       <c r="N6" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8467,10 +8467,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8531,19 +8531,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>186.0888404416877</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8692,19 +8692,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>505.666843611017</v>
+        <v>66.89160419125324</v>
       </c>
       <c r="L11" t="n">
-        <v>58.75652045681615</v>
+        <v>650.1686467261112</v>
       </c>
       <c r="M11" t="n">
-        <v>635.9970114584152</v>
+        <v>44.58488518912007</v>
       </c>
       <c r="N11" t="n">
-        <v>42.27704711602587</v>
+        <v>361.1312631310396</v>
       </c>
       <c r="O11" t="n">
-        <v>474.1272593651326</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
         <v>502.0059847475129</v>
@@ -8768,25 +8768,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>52.17609846406338</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>37.86348895248231</v>
       </c>
       <c r="L12" t="n">
-        <v>146.8588033886687</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>11.2115456193539</v>
+        <v>602.6236718886489</v>
       </c>
       <c r="N12" t="n">
-        <v>593.4601867308691</v>
+        <v>560.520143509431</v>
       </c>
       <c r="O12" t="n">
         <v>607.8744558939304</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>25.905898199832</v>
       </c>
       <c r="Q12" t="n">
         <v>50.09263685995591</v>
@@ -8932,16 +8932,16 @@
         <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>58.75652045681615</v>
+        <v>650.1686467261112</v>
       </c>
       <c r="M14" t="n">
-        <v>613.8473830282102</v>
+        <v>635.9970114584152</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6891733853209</v>
+        <v>42.27704711602587</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698827</v>
+        <v>571.8986543396777</v>
       </c>
       <c r="P14" t="n">
         <v>64.19643144562944</v>
@@ -9008,25 +9008,25 @@
         <v>52.17609846406338</v>
       </c>
       <c r="K15" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>569.683628667211</v>
+        <v>37.86952126292724</v>
       </c>
       <c r="N15" t="n">
         <v>593.4601867308691</v>
       </c>
       <c r="O15" t="n">
-        <v>607.8744558939304</v>
+        <v>16.46232962463525</v>
       </c>
       <c r="P15" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,13 +9242,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>44.62890431745647</v>
+        <v>128.6415876214268</v>
       </c>
       <c r="K18" t="n">
-        <v>24.96413205653381</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>146.7019108095436</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>39.89563864989847</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>69.84060434447255</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>44.62890431745648</v>
       </c>
       <c r="K21" t="n">
-        <v>193.7828942950856</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>3.153566667930519</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>10.65174385439909</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.8956386498985</v>
+        <v>63.56627136169327</v>
       </c>
       <c r="R21" t="n">
-        <v>71.01380490566048</v>
+        <v>69.84060434447255</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>44.62890431745647</v>
+        <v>44.62890431745648</v>
       </c>
       <c r="K24" t="n">
-        <v>194.7134776641323</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>3.153566667930505</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>522.6876525359443</v>
       </c>
       <c r="P24" t="n">
-        <v>10.65174385439903</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.89563864989846</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>69.84060434447255</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>44.62890431745647</v>
+        <v>44.62890431745648</v>
       </c>
       <c r="K27" t="n">
-        <v>24.96413205653381</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>196.0873646822723</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>219.4689355282297</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.89563864989846</v>
+        <v>39.89563864989847</v>
       </c>
       <c r="R27" t="n">
-        <v>71.01380490566048</v>
+        <v>69.84060434447255</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>44.62890431745647</v>
+        <v>44.62890431745648</v>
       </c>
       <c r="K30" t="n">
-        <v>24.96413205653381</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>196.0873646822723</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>331.5436169065316</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.89563864989846</v>
+        <v>39.89563864989847</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>69.84060434447255</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>44.62890431745647</v>
+        <v>44.62890431745648</v>
       </c>
       <c r="K33" t="n">
-        <v>24.96413205653381</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>3.153566667930505</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>181.5742900231857</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.89563864989846</v>
+        <v>235.983003332171</v>
       </c>
       <c r="R33" t="n">
-        <v>69.84060434447254</v>
+        <v>69.84060434447255</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,19 +10664,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>44.62890431745647</v>
+        <v>44.62890431745648</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>3.153566667930505</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>23.67063271179454</v>
+        <v>196.0873646822724</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10685,10 +10685,10 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.89563864989846</v>
+        <v>39.89563864989847</v>
       </c>
       <c r="R36" t="n">
-        <v>69.84060434447254</v>
+        <v>69.84060434447255</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>44.62890431745647</v>
       </c>
       <c r="K39" t="n">
-        <v>215.0570988210287</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>522.6876525359443</v>
       </c>
       <c r="P39" t="n">
-        <v>10.65174385439902</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.89563864989844</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>71.01380490566048</v>
+        <v>69.84060434447254</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,25 +11065,25 @@
         <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>547.6393307570933</v>
+        <v>35.19571805647389</v>
       </c>
       <c r="M41" t="n">
-        <v>609.7810791074237</v>
+        <v>386.0701730503797</v>
       </c>
       <c r="N41" t="n">
-        <v>15.63691357168179</v>
+        <v>15.63691357168184</v>
       </c>
       <c r="O41" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>42.72677483125926</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>63.71459949589106</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
-        <v>93.13909209400283</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>44.62890431745646</v>
+        <v>44.62890431745647</v>
       </c>
       <c r="K42" t="n">
-        <v>24.96413205653378</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>36.56202554312719</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6839430235368</v>
+        <v>221.6443308835755</v>
       </c>
       <c r="O42" t="n">
-        <v>588.8682518703946</v>
+        <v>588.8682518703947</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>39.89563864989844</v>
+        <v>39.89563864989847</v>
       </c>
       <c r="R42" t="n">
-        <v>69.84060434447252</v>
+        <v>69.84060434447254</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>54.18758142559199</v>
+        <v>163.9373939688656</v>
       </c>
       <c r="K44" t="n">
         <v>505.666843611017</v>
@@ -11305,22 +11305,22 @@
         <v>626.6078443257691</v>
       </c>
       <c r="M44" t="n">
-        <v>18.36895283812848</v>
+        <v>609.7810791074238</v>
       </c>
       <c r="N44" t="n">
-        <v>15.63691357168179</v>
+        <v>607.049039840977</v>
       </c>
       <c r="O44" t="n">
-        <v>594.0482827698827</v>
+        <v>23.52096863148093</v>
       </c>
       <c r="P44" t="n">
-        <v>502.0059847475129</v>
+        <v>42.72677483125931</v>
       </c>
       <c r="Q44" t="n">
-        <v>317.1036176152501</v>
+        <v>63.71459949589109</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5176150018526</v>
+        <v>93.13909209400285</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>44.62890431745647</v>
       </c>
       <c r="K45" t="n">
-        <v>24.96413205653378</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>366.7668936607846</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>582.3831349660604</v>
+        <v>582.3831349660605</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6839430235368</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>588.8682518703946</v>
+        <v>228.1294477879099</v>
       </c>
       <c r="P45" t="n">
-        <v>10.65174385439902</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.89563864989844</v>
+        <v>39.89563864989847</v>
       </c>
       <c r="R45" t="n">
-        <v>69.84060434447252</v>
+        <v>69.84060434447254</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>159.4984069898366</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>72.29140084872324</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>408.4323500200001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I11" t="n">
         <v>113.8693593270194</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>111.9846380889616</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H13" t="n">
         <v>151.5357458635549</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>113.1077952665563</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>91.88361634594355</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H14" t="n">
         <v>314.7099853831353</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>228.7213592823912</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>152.2269958551595</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S16" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U16" t="n">
-        <v>131.7086356593926</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>282.5225903588101</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>408.2830491160485</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>313.180957500541</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>108.1134362274254</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>220.0899440265675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>95.72214383073285</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>24.50852701058062</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2359509470872</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>150.9403106068158</v>
@@ -23913,7 +23913,7 @@
         <v>121.6722041362075</v>
       </c>
       <c r="J19" t="n">
-        <v>6.350224769714949</v>
+        <v>6.350224769714952</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>107.5738730925879</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>194.9399852654295</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>231.9280946334754</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5661004360929</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>220.0899440265676</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>408.2830491160485</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>313.180957500541</v>
+        <v>131.7419721867078</v>
       </c>
       <c r="I20" t="n">
         <v>108.1134362274254</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.9908812904515</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1353559624811</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>132.5054335092726</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,13 +24144,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>150.9403106068158</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>121.6722041362075</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.350224769714952</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>231.9280946334754</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5661004360929</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.4270746530528</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>72.28837110358381</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>408.2830491160485</v>
+        <v>9.445182966699633</v>
       </c>
       <c r="H23" t="n">
         <v>313.180957500541</v>
       </c>
       <c r="I23" t="n">
-        <v>108.1134362274253</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>147.8015729229842</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.9908812904515</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1353559624811</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,16 +24378,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2359509470872</v>
+        <v>67.59333266365581</v>
       </c>
       <c r="H25" t="n">
-        <v>50.89247715785048</v>
+        <v>150.9403106068158</v>
       </c>
       <c r="I25" t="n">
         <v>121.6722041362075</v>
       </c>
       <c r="J25" t="n">
-        <v>6.350224769714945</v>
+        <v>6.350224769714952</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>107.5738730925879</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.9399852654295</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5661004360929</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>313.180957500541</v>
+        <v>159.5060733726006</v>
       </c>
       <c r="I26" t="n">
-        <v>108.1134362274253</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>231.8831948883321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>148.330242661692</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,19 +24612,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.2359509470872</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>150.9403106068158</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>6.350224769714945</v>
+        <v>6.350224769714952</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>282.5661004360929</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>103.7360033509635</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>281.4414133037214</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>408.2830491160485</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>313.180957500541</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>147.8015729229842</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1353559624811</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.2033802539932</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24855,13 +24855,13 @@
         <v>166.2359509470872</v>
       </c>
       <c r="H31" t="n">
-        <v>150.9403106068158</v>
+        <v>14.02639865370287</v>
       </c>
       <c r="I31" t="n">
         <v>121.6722041362075</v>
       </c>
       <c r="J31" t="n">
-        <v>6.350224769714945</v>
+        <v>6.350224769714952</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>107.5738730925879</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>194.9399852654295</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5661004360929</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>179.696851952135</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>201.9312805541754</v>
       </c>
       <c r="I32" t="n">
-        <v>108.1134362274253</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>147.8015729229842</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1353559624811</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>132.338658303552</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>78.19309297096264</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25089,16 +25089,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.2359509470872</v>
       </c>
       <c r="H34" t="n">
-        <v>150.9403106068158</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>121.6722041362075</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.350224769714945</v>
+        <v>6.350224769714952</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>74.41354864501371</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.9399852654295</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5661004360929</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>242.8266481199129</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>408.2830491160485</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.9908812904515</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>56.87468008175796</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>18.63097546647882</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,10 +25332,10 @@
         <v>150.9403106068158</v>
       </c>
       <c r="I37" t="n">
-        <v>121.6722041362075</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>6.350224769714945</v>
+        <v>6.350224769714952</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>107.5738730925879</v>
       </c>
       <c r="S37" t="n">
-        <v>194.9399852654295</v>
+        <v>79.35245706043973</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>231.9280946334754</v>
       </c>
       <c r="U37" t="n">
         <v>282.5661004360929</v>
@@ -25377,10 +25377,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>36.55189597661854</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>313.180957500541</v>
       </c>
       <c r="I38" t="n">
-        <v>108.1134362274253</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,16 +25447,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1353559624811</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>192.6781884662628</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>138.7696741116276</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>166.2359509470872</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>150.9403106068158</v>
+        <v>102.4110369338252</v>
       </c>
       <c r="I40" t="n">
         <v>121.6722041362075</v>
       </c>
       <c r="J40" t="n">
-        <v>6.350224769714938</v>
+        <v>6.350224769714949</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -25642,13 +25642,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>408.2830491160485</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>313.180957500541</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>108.1134362274253</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>147.8015729229842</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9107394519168</v>
+        <v>50.46065366141843</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25696,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25788,10 +25788,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>9.145844336718227</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -25800,16 +25800,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>166.2359509470872</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>121.6722041362075</v>
       </c>
       <c r="J43" t="n">
-        <v>6.350224769714938</v>
+        <v>6.350224769714949</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>107.5738730925879</v>
       </c>
       <c r="S43" t="n">
         <v>194.9399852654295</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>231.9280946334754</v>
       </c>
       <c r="U43" t="n">
         <v>282.5661004360929</v>
       </c>
       <c r="V43" t="n">
-        <v>2.789126119451851</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>313.180957500541</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>108.1134362274254</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>50.02135409354656</v>
       </c>
       <c r="T44" t="n">
-        <v>217.9908812904515</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>253.1353559624811</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>280.8629887378765</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26040,13 +26040,13 @@
         <v>166.2359509470872</v>
       </c>
       <c r="H46" t="n">
-        <v>150.9403106068158</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>121.6722041362075</v>
       </c>
       <c r="J46" t="n">
-        <v>6.350224769714938</v>
+        <v>6.350224769714949</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>36.04315896358605</v>
       </c>
       <c r="T46" t="n">
-        <v>165.5999464049045</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>705040.8395755879</v>
+        <v>705040.8395755877</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>705040.8395755877</v>
+        <v>705040.8395755879</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>705040.8395755879</v>
+        <v>705040.8395755878</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>705040.8395755879</v>
+        <v>705040.8395755878</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>705040.8395755879</v>
+        <v>705040.8395755878</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>705040.8395755879</v>
+        <v>705040.8395755877</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>551799.9586361124</v>
+        <v>551799.9586361123</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522963.3164707347</v>
+        <v>522963.3164707345</v>
       </c>
       <c r="C2" t="n">
-        <v>522963.3164707346</v>
+        <v>522963.3164707345</v>
       </c>
       <c r="D2" t="n">
-        <v>522963.3164707347</v>
+        <v>522963.3164707344</v>
       </c>
       <c r="E2" t="n">
-        <v>337374.5723083277</v>
+        <v>337374.5723083278</v>
       </c>
       <c r="F2" t="n">
         <v>337374.5723083278</v>
       </c>
       <c r="G2" t="n">
+        <v>429690.4839482282</v>
+      </c>
+      <c r="H2" t="n">
         <v>429690.4839482284</v>
-      </c>
-      <c r="H2" t="n">
-        <v>429690.4839482282</v>
       </c>
       <c r="I2" t="n">
         <v>429690.4839482284</v>
       </c>
       <c r="J2" t="n">
-        <v>429690.4839482285</v>
+        <v>429690.4839482284</v>
       </c>
       <c r="K2" t="n">
-        <v>429690.4839482286</v>
+        <v>429690.4839482284</v>
       </c>
       <c r="L2" t="n">
-        <v>429690.4839482285</v>
+        <v>429690.4839482282</v>
       </c>
       <c r="M2" t="n">
-        <v>429690.4839482285</v>
+        <v>429690.4839482283</v>
       </c>
       <c r="N2" t="n">
-        <v>429690.4839482285</v>
+        <v>429690.4839482281</v>
       </c>
       <c r="O2" t="n">
-        <v>339296.5524468697</v>
+        <v>339296.5524468696</v>
       </c>
       <c r="P2" t="n">
         <v>339296.5524468697</v>
@@ -26429,7 +26429,7 @@
         <v>76576.08178279983</v>
       </c>
       <c r="F4" t="n">
-        <v>76576.08178279981</v>
+        <v>76576.08178279983</v>
       </c>
       <c r="G4" t="n">
         <v>98207.36212511</v>
@@ -26438,7 +26438,7 @@
         <v>98207.36212511001</v>
       </c>
       <c r="I4" t="n">
-        <v>98207.36212511001</v>
+        <v>98207.36212511</v>
       </c>
       <c r="J4" t="n">
         <v>98207.36212511</v>
@@ -26447,7 +26447,7 @@
         <v>98207.36212511</v>
       </c>
       <c r="L4" t="n">
-        <v>98207.36212511001</v>
+        <v>98207.36212511</v>
       </c>
       <c r="M4" t="n">
         <v>98207.36212511</v>
@@ -26456,10 +26456,10 @@
         <v>98207.36212511</v>
       </c>
       <c r="O4" t="n">
-        <v>72573.97890591163</v>
+        <v>72573.97890591164</v>
       </c>
       <c r="P4" t="n">
-        <v>72573.97890591163</v>
+        <v>72573.97890591164</v>
       </c>
     </row>
     <row r="5">
@@ -26493,19 +26493,19 @@
         <v>64554.27355972816</v>
       </c>
       <c r="J5" t="n">
-        <v>64554.27355972818</v>
+        <v>64554.27355972817</v>
       </c>
       <c r="K5" t="n">
-        <v>64554.27355972818</v>
+        <v>64554.27355972816</v>
       </c>
       <c r="L5" t="n">
         <v>64554.27355972816</v>
       </c>
       <c r="M5" t="n">
-        <v>64554.27355972818</v>
+        <v>64554.27355972817</v>
       </c>
       <c r="N5" t="n">
-        <v>64554.27355972817</v>
+        <v>64554.27355972816</v>
       </c>
       <c r="O5" t="n">
         <v>40014.50181127501</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9268.274156394647</v>
+        <v>9268.274156394502</v>
       </c>
       <c r="C6" t="n">
-        <v>207464.0801481396</v>
+        <v>207464.0801481394</v>
       </c>
       <c r="D6" t="n">
-        <v>207464.0801481396</v>
+        <v>207464.0801481393</v>
       </c>
       <c r="E6" t="n">
-        <v>101929.937474537</v>
+        <v>101289.9762877702</v>
       </c>
       <c r="F6" t="n">
-        <v>221593.6101911566</v>
+        <v>220953.6490043896</v>
       </c>
       <c r="G6" t="n">
-        <v>127429.3436941307</v>
+        <v>127107.7132371564</v>
       </c>
       <c r="H6" t="n">
-        <v>266928.8482633901</v>
+        <v>266607.2178064161</v>
       </c>
       <c r="I6" t="n">
-        <v>266928.8482633902</v>
+        <v>266607.2178064161</v>
       </c>
       <c r="J6" t="n">
-        <v>112189.4138977869</v>
+        <v>111867.7834408126</v>
       </c>
       <c r="K6" t="n">
-        <v>266928.8482633904</v>
+        <v>266607.217806416</v>
       </c>
       <c r="L6" t="n">
-        <v>266928.8482633903</v>
+        <v>266607.2178064159</v>
       </c>
       <c r="M6" t="n">
-        <v>266928.8482633903</v>
+        <v>266607.217806416</v>
       </c>
       <c r="N6" t="n">
-        <v>266928.8482633903</v>
+        <v>266607.2178064158</v>
       </c>
       <c r="O6" t="n">
-        <v>226708.0717296831</v>
+        <v>226074.738060635</v>
       </c>
       <c r="P6" t="n">
-        <v>226708.071729683</v>
+        <v>226074.7380606352</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>186.0846116560488</v>
       </c>
       <c r="H3" t="n">
-        <v>186.0846116560487</v>
+        <v>186.0846116560488</v>
       </c>
       <c r="I3" t="n">
         <v>186.0846116560488</v>
@@ -26773,13 +26773,13 @@
         <v>186.0846116560488</v>
       </c>
       <c r="N3" t="n">
-        <v>186.0846116560489</v>
+        <v>186.0846116560488</v>
       </c>
       <c r="O3" t="n">
-        <v>186.0846116560489</v>
+        <v>186.0846116560488</v>
       </c>
       <c r="P3" t="n">
-        <v>186.0846116560489</v>
+        <v>186.0846116560488</v>
       </c>
     </row>
     <row r="4">
@@ -26813,19 +26813,19 @@
         <v>995.0267931846432</v>
       </c>
       <c r="J4" t="n">
-        <v>995.0267931846435</v>
+        <v>995.0267931846433</v>
       </c>
       <c r="K4" t="n">
-        <v>995.0267931846435</v>
+        <v>995.0267931846432</v>
       </c>
       <c r="L4" t="n">
         <v>995.0267931846432</v>
       </c>
       <c r="M4" t="n">
-        <v>995.0267931846435</v>
+        <v>995.0267931846433</v>
       </c>
       <c r="N4" t="n">
-        <v>995.0267931846433</v>
+        <v>995.0267931846432</v>
       </c>
       <c r="O4" t="n">
         <v>591.4121262692952</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37.13859985796071</v>
+        <v>37.13859985796068</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>403.6146669153482</v>
+        <v>403.614666915348</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692953</v>
+        <v>591.4121262692952</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>403.6146669153482</v>
+        <v>403.614666915348</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>206.1153369902858</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>24.26718808313234</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27542,10 +27542,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27560,7 +27560,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>54.25569829747806</v>
       </c>
       <c r="U4" t="n">
-        <v>197.404850085506</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>196.5497189825676</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>61.45798995535888</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27678,10 +27678,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27785,7 +27785,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27797,7 +27797,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>117.6956750166486</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>42.58594000437017</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>95.79628428128308</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>130.0953788601536</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27918,7 +27918,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28034,7 +28034,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>210.2831670182382</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>54.11543127491436</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -32226,19 +32226,19 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7480788408283364</v>
+        <v>0.7480788408283363</v>
       </c>
       <c r="H17" t="n">
-        <v>7.661262428633203</v>
+        <v>7.661262428633201</v>
       </c>
       <c r="I17" t="n">
-        <v>28.84030951103447</v>
+        <v>28.84030951103446</v>
       </c>
       <c r="J17" t="n">
-        <v>63.49225651675408</v>
+        <v>63.49225651675407</v>
       </c>
       <c r="K17" t="n">
-        <v>95.15843384901757</v>
+        <v>95.15843384901756</v>
       </c>
       <c r="L17" t="n">
         <v>118.0524516740178</v>
@@ -32256,10 +32256,10 @@
         <v>107.5746724096659</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.78409892250107</v>
+        <v>80.78409892250106</v>
       </c>
       <c r="R17" t="n">
-        <v>46.99150748518303</v>
+        <v>46.99150748518302</v>
       </c>
       <c r="S17" t="n">
         <v>17.04684658537573</v>
@@ -32268,7 +32268,7 @@
         <v>3.274715125726044</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0598463072662669</v>
+        <v>0.05984630726626689</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4002574665809352</v>
+        <v>0.4002574665809351</v>
       </c>
       <c r="H18" t="n">
-        <v>3.86564447987377</v>
+        <v>3.865644479873769</v>
       </c>
       <c r="I18" t="n">
         <v>13.78079435377343</v>
@@ -32317,7 +32317,7 @@
         <v>37.81555301587687</v>
       </c>
       <c r="K18" t="n">
-        <v>64.63280327679954</v>
+        <v>64.63280327679952</v>
       </c>
       <c r="L18" t="n">
         <v>86.90678018898771</v>
@@ -32329,22 +32329,22 @@
         <v>104.1002960999249</v>
       </c>
       <c r="O18" t="n">
-        <v>95.23143328778944</v>
+        <v>95.23143328778943</v>
       </c>
       <c r="P18" t="n">
-        <v>76.43162096491561</v>
+        <v>76.4316209649156</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.09251450601553</v>
+        <v>51.09251450601552</v>
       </c>
       <c r="R18" t="n">
         <v>24.85107323210404</v>
       </c>
       <c r="S18" t="n">
-        <v>7.434606890220437</v>
+        <v>7.434606890220436</v>
       </c>
       <c r="T18" t="n">
-        <v>1.613318472753857</v>
+        <v>1.613318472753856</v>
       </c>
       <c r="U18" t="n">
         <v>0.02633272806453522</v>
@@ -32384,7 +32384,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3355624144617274</v>
+        <v>0.3355624144617273</v>
       </c>
       <c r="H19" t="n">
         <v>2.983454921305178</v>
@@ -32396,34 +32396,34 @@
         <v>23.72426270244412</v>
       </c>
       <c r="K19" t="n">
-        <v>38.98625142564431</v>
+        <v>38.9862514256443</v>
       </c>
       <c r="L19" t="n">
-        <v>49.88897932824627</v>
+        <v>49.88897932824626</v>
       </c>
       <c r="M19" t="n">
-        <v>52.60093375057785</v>
+        <v>52.60093375057784</v>
       </c>
       <c r="N19" t="n">
-        <v>51.35020111485692</v>
+        <v>51.3502011148569</v>
       </c>
       <c r="O19" t="n">
         <v>47.43022200046308</v>
       </c>
       <c r="P19" t="n">
-        <v>40.58474874544381</v>
+        <v>40.5847487454438</v>
       </c>
       <c r="Q19" t="n">
         <v>28.09877636006337</v>
       </c>
       <c r="R19" t="n">
-        <v>15.08810638116094</v>
+        <v>15.08810638116093</v>
       </c>
       <c r="S19" t="n">
-        <v>5.847937713846647</v>
+        <v>5.847937713846646</v>
       </c>
       <c r="T19" t="n">
-        <v>1.433766679972835</v>
+        <v>1.433766679972834</v>
       </c>
       <c r="U19" t="n">
         <v>0.01830340442518515</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.748078840828336</v>
+        <v>0.7480788408283363</v>
       </c>
       <c r="H20" t="n">
-        <v>7.661262428633197</v>
+        <v>7.661262428633201</v>
       </c>
       <c r="I20" t="n">
-        <v>28.84030951103445</v>
+        <v>28.84030951103446</v>
       </c>
       <c r="J20" t="n">
-        <v>63.49225651675403</v>
+        <v>63.49225651675407</v>
       </c>
       <c r="K20" t="n">
-        <v>95.15843384901751</v>
+        <v>95.15843384901756</v>
       </c>
       <c r="L20" t="n">
-        <v>118.0524516740177</v>
+        <v>118.0524516740178</v>
       </c>
       <c r="M20" t="n">
-        <v>131.3560987595986</v>
+        <v>131.3560987595987</v>
       </c>
       <c r="N20" t="n">
         <v>133.4815777661022</v>
       </c>
       <c r="O20" t="n">
-        <v>126.0428687926154</v>
+        <v>126.0428687926155</v>
       </c>
       <c r="P20" t="n">
-        <v>107.5746724096658</v>
+        <v>107.5746724096659</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.78409892250102</v>
+        <v>80.78409892250106</v>
       </c>
       <c r="R20" t="n">
-        <v>46.991507485183</v>
+        <v>46.99150748518302</v>
       </c>
       <c r="S20" t="n">
-        <v>17.04684658537572</v>
+        <v>17.04684658537573</v>
       </c>
       <c r="T20" t="n">
-        <v>3.274715125726042</v>
+        <v>3.274715125726044</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05984630726626686</v>
+        <v>0.05984630726626689</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.400257466580935</v>
+        <v>0.4002574665809351</v>
       </c>
       <c r="H21" t="n">
-        <v>3.865644479873767</v>
+        <v>3.865644479873769</v>
       </c>
       <c r="I21" t="n">
-        <v>13.78079435377342</v>
+        <v>13.78079435377343</v>
       </c>
       <c r="J21" t="n">
-        <v>37.81555301587685</v>
+        <v>37.81555301587687</v>
       </c>
       <c r="K21" t="n">
-        <v>64.63280327679949</v>
+        <v>64.63280327679952</v>
       </c>
       <c r="L21" t="n">
-        <v>86.90678018898767</v>
+        <v>86.90678018898771</v>
       </c>
       <c r="M21" t="n">
-        <v>101.4161133525465</v>
+        <v>101.4161133525466</v>
       </c>
       <c r="N21" t="n">
-        <v>104.1002960999248</v>
+        <v>104.1002960999249</v>
       </c>
       <c r="O21" t="n">
-        <v>95.23143328778939</v>
+        <v>95.23143328778943</v>
       </c>
       <c r="P21" t="n">
-        <v>76.43162096491557</v>
+        <v>76.4316209649156</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.09251450601549</v>
+        <v>51.09251450601552</v>
       </c>
       <c r="R21" t="n">
-        <v>24.85107323210402</v>
+        <v>24.85107323210404</v>
       </c>
       <c r="S21" t="n">
-        <v>7.434606890220432</v>
+        <v>7.434606890220436</v>
       </c>
       <c r="T21" t="n">
         <v>1.613318472753856</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02633272806453521</v>
+        <v>0.02633272806453522</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3355624144617271</v>
+        <v>0.3355624144617273</v>
       </c>
       <c r="H22" t="n">
-        <v>2.983454921305176</v>
+        <v>2.983454921305178</v>
       </c>
       <c r="I22" t="n">
         <v>10.0912769730854</v>
       </c>
       <c r="J22" t="n">
-        <v>23.72426270244411</v>
+        <v>23.72426270244412</v>
       </c>
       <c r="K22" t="n">
-        <v>38.98625142564429</v>
+        <v>38.9862514256443</v>
       </c>
       <c r="L22" t="n">
-        <v>49.88897932824624</v>
+        <v>49.88897932824626</v>
       </c>
       <c r="M22" t="n">
-        <v>52.60093375057782</v>
+        <v>52.60093375057784</v>
       </c>
       <c r="N22" t="n">
-        <v>51.35020111485688</v>
+        <v>51.3502011148569</v>
       </c>
       <c r="O22" t="n">
-        <v>47.43022200046305</v>
+        <v>47.43022200046308</v>
       </c>
       <c r="P22" t="n">
-        <v>40.58474874544378</v>
+        <v>40.5847487454438</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.09877636006335</v>
+        <v>28.09877636006337</v>
       </c>
       <c r="R22" t="n">
         <v>15.08810638116093</v>
       </c>
       <c r="S22" t="n">
-        <v>5.847937713846643</v>
+        <v>5.847937713846646</v>
       </c>
       <c r="T22" t="n">
         <v>1.433766679972834</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01830340442518514</v>
+        <v>0.01830340442518515</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,28 +32700,28 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7480788408283365</v>
+        <v>0.7480788408283363</v>
       </c>
       <c r="H23" t="n">
-        <v>7.661262428633203</v>
+        <v>7.661262428633201</v>
       </c>
       <c r="I23" t="n">
-        <v>28.84030951103447</v>
+        <v>28.84030951103446</v>
       </c>
       <c r="J23" t="n">
-        <v>63.49225651675408</v>
+        <v>63.49225651675407</v>
       </c>
       <c r="K23" t="n">
-        <v>95.15843384901758</v>
+        <v>95.15843384901756</v>
       </c>
       <c r="L23" t="n">
         <v>118.0524516740178</v>
       </c>
       <c r="M23" t="n">
-        <v>131.3560987595988</v>
+        <v>131.3560987595987</v>
       </c>
       <c r="N23" t="n">
-        <v>133.4815777661023</v>
+        <v>133.4815777661022</v>
       </c>
       <c r="O23" t="n">
         <v>126.0428687926155</v>
@@ -32730,19 +32730,19 @@
         <v>107.5746724096659</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.78409892250109</v>
+        <v>80.78409892250106</v>
       </c>
       <c r="R23" t="n">
-        <v>46.99150748518304</v>
+        <v>46.99150748518302</v>
       </c>
       <c r="S23" t="n">
-        <v>17.04684658537574</v>
+        <v>17.04684658537573</v>
       </c>
       <c r="T23" t="n">
-        <v>3.274715125726045</v>
+        <v>3.274715125726044</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05984630726626691</v>
+        <v>0.05984630726626689</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4002574665809353</v>
+        <v>0.4002574665809351</v>
       </c>
       <c r="H24" t="n">
-        <v>3.86564447987377</v>
+        <v>3.865644479873769</v>
       </c>
       <c r="I24" t="n">
         <v>13.78079435377343</v>
       </c>
       <c r="J24" t="n">
-        <v>37.81555301587688</v>
+        <v>37.81555301587687</v>
       </c>
       <c r="K24" t="n">
-        <v>64.63280327679954</v>
+        <v>64.63280327679952</v>
       </c>
       <c r="L24" t="n">
-        <v>86.90678018898772</v>
+        <v>86.90678018898771</v>
       </c>
       <c r="M24" t="n">
         <v>101.4161133525466</v>
@@ -32803,25 +32803,25 @@
         <v>104.1002960999249</v>
       </c>
       <c r="O24" t="n">
-        <v>95.23143328778946</v>
+        <v>95.23143328778943</v>
       </c>
       <c r="P24" t="n">
-        <v>76.43162096491562</v>
+        <v>76.4316209649156</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.09251450601553</v>
+        <v>51.09251450601552</v>
       </c>
       <c r="R24" t="n">
         <v>24.85107323210404</v>
       </c>
       <c r="S24" t="n">
-        <v>7.434606890220437</v>
+        <v>7.434606890220436</v>
       </c>
       <c r="T24" t="n">
-        <v>1.613318472753857</v>
+        <v>1.613318472753856</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02633272806453523</v>
+        <v>0.02633272806453522</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3355624144617274</v>
+        <v>0.3355624144617273</v>
       </c>
       <c r="H25" t="n">
         <v>2.983454921305178</v>
@@ -32867,37 +32867,37 @@
         <v>10.0912769730854</v>
       </c>
       <c r="J25" t="n">
-        <v>23.72426270244413</v>
+        <v>23.72426270244412</v>
       </c>
       <c r="K25" t="n">
-        <v>38.98625142564432</v>
+        <v>38.9862514256443</v>
       </c>
       <c r="L25" t="n">
-        <v>49.88897932824628</v>
+        <v>49.88897932824626</v>
       </c>
       <c r="M25" t="n">
-        <v>52.60093375057786</v>
+        <v>52.60093375057784</v>
       </c>
       <c r="N25" t="n">
-        <v>51.35020111485692</v>
+        <v>51.3502011148569</v>
       </c>
       <c r="O25" t="n">
-        <v>47.43022200046309</v>
+        <v>47.43022200046308</v>
       </c>
       <c r="P25" t="n">
-        <v>40.58474874544381</v>
+        <v>40.5847487454438</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.09877636006338</v>
+        <v>28.09877636006337</v>
       </c>
       <c r="R25" t="n">
-        <v>15.08810638116094</v>
+        <v>15.08810638116093</v>
       </c>
       <c r="S25" t="n">
-        <v>5.847937713846648</v>
+        <v>5.847937713846646</v>
       </c>
       <c r="T25" t="n">
-        <v>1.433766679972835</v>
+        <v>1.433766679972834</v>
       </c>
       <c r="U25" t="n">
         <v>0.01830340442518515</v>
@@ -32937,28 +32937,28 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7480788408283365</v>
+        <v>0.7480788408283363</v>
       </c>
       <c r="H26" t="n">
-        <v>7.661262428633203</v>
+        <v>7.661262428633201</v>
       </c>
       <c r="I26" t="n">
-        <v>28.84030951103447</v>
+        <v>28.84030951103446</v>
       </c>
       <c r="J26" t="n">
-        <v>63.49225651675408</v>
+        <v>63.49225651675407</v>
       </c>
       <c r="K26" t="n">
-        <v>95.15843384901758</v>
+        <v>95.15843384901756</v>
       </c>
       <c r="L26" t="n">
         <v>118.0524516740178</v>
       </c>
       <c r="M26" t="n">
-        <v>131.3560987595988</v>
+        <v>131.3560987595987</v>
       </c>
       <c r="N26" t="n">
-        <v>133.4815777661023</v>
+        <v>133.4815777661022</v>
       </c>
       <c r="O26" t="n">
         <v>126.0428687926155</v>
@@ -32967,19 +32967,19 @@
         <v>107.5746724096659</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.78409892250109</v>
+        <v>80.78409892250106</v>
       </c>
       <c r="R26" t="n">
-        <v>46.99150748518304</v>
+        <v>46.99150748518302</v>
       </c>
       <c r="S26" t="n">
-        <v>17.04684658537574</v>
+        <v>17.04684658537573</v>
       </c>
       <c r="T26" t="n">
-        <v>3.274715125726045</v>
+        <v>3.274715125726044</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05984630726626691</v>
+        <v>0.05984630726626689</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4002574665809353</v>
+        <v>0.4002574665809351</v>
       </c>
       <c r="H27" t="n">
-        <v>3.86564447987377</v>
+        <v>3.865644479873769</v>
       </c>
       <c r="I27" t="n">
         <v>13.78079435377343</v>
       </c>
       <c r="J27" t="n">
-        <v>37.81555301587688</v>
+        <v>37.81555301587687</v>
       </c>
       <c r="K27" t="n">
-        <v>64.63280327679954</v>
+        <v>64.63280327679952</v>
       </c>
       <c r="L27" t="n">
-        <v>86.90678018898772</v>
+        <v>86.90678018898771</v>
       </c>
       <c r="M27" t="n">
         <v>101.4161133525466</v>
@@ -33040,25 +33040,25 @@
         <v>104.1002960999249</v>
       </c>
       <c r="O27" t="n">
-        <v>95.23143328778946</v>
+        <v>95.23143328778943</v>
       </c>
       <c r="P27" t="n">
-        <v>76.43162096491562</v>
+        <v>76.4316209649156</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.09251450601553</v>
+        <v>51.09251450601552</v>
       </c>
       <c r="R27" t="n">
         <v>24.85107323210404</v>
       </c>
       <c r="S27" t="n">
-        <v>7.434606890220437</v>
+        <v>7.434606890220436</v>
       </c>
       <c r="T27" t="n">
-        <v>1.613318472753857</v>
+        <v>1.613318472753856</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02633272806453523</v>
+        <v>0.02633272806453522</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,7 +33095,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3355624144617274</v>
+        <v>0.3355624144617273</v>
       </c>
       <c r="H28" t="n">
         <v>2.983454921305178</v>
@@ -33104,37 +33104,37 @@
         <v>10.0912769730854</v>
       </c>
       <c r="J28" t="n">
-        <v>23.72426270244413</v>
+        <v>23.72426270244412</v>
       </c>
       <c r="K28" t="n">
-        <v>38.98625142564432</v>
+        <v>38.9862514256443</v>
       </c>
       <c r="L28" t="n">
-        <v>49.88897932824628</v>
+        <v>49.88897932824626</v>
       </c>
       <c r="M28" t="n">
-        <v>52.60093375057786</v>
+        <v>52.60093375057784</v>
       </c>
       <c r="N28" t="n">
-        <v>51.35020111485692</v>
+        <v>51.3502011148569</v>
       </c>
       <c r="O28" t="n">
-        <v>47.43022200046309</v>
+        <v>47.43022200046308</v>
       </c>
       <c r="P28" t="n">
-        <v>40.58474874544381</v>
+        <v>40.5847487454438</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.09877636006338</v>
+        <v>28.09877636006337</v>
       </c>
       <c r="R28" t="n">
-        <v>15.08810638116094</v>
+        <v>15.08810638116093</v>
       </c>
       <c r="S28" t="n">
-        <v>5.847937713846648</v>
+        <v>5.847937713846646</v>
       </c>
       <c r="T28" t="n">
-        <v>1.433766679972835</v>
+        <v>1.433766679972834</v>
       </c>
       <c r="U28" t="n">
         <v>0.01830340442518515</v>
@@ -33174,28 +33174,28 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7480788408283365</v>
+        <v>0.7480788408283363</v>
       </c>
       <c r="H29" t="n">
-        <v>7.661262428633203</v>
+        <v>7.661262428633201</v>
       </c>
       <c r="I29" t="n">
-        <v>28.84030951103447</v>
+        <v>28.84030951103446</v>
       </c>
       <c r="J29" t="n">
-        <v>63.49225651675408</v>
+        <v>63.49225651675407</v>
       </c>
       <c r="K29" t="n">
-        <v>95.15843384901758</v>
+        <v>95.15843384901756</v>
       </c>
       <c r="L29" t="n">
         <v>118.0524516740178</v>
       </c>
       <c r="M29" t="n">
-        <v>131.3560987595988</v>
+        <v>131.3560987595987</v>
       </c>
       <c r="N29" t="n">
-        <v>133.4815777661023</v>
+        <v>133.4815777661022</v>
       </c>
       <c r="O29" t="n">
         <v>126.0428687926155</v>
@@ -33204,19 +33204,19 @@
         <v>107.5746724096659</v>
       </c>
       <c r="Q29" t="n">
-        <v>80.78409892250109</v>
+        <v>80.78409892250106</v>
       </c>
       <c r="R29" t="n">
-        <v>46.99150748518304</v>
+        <v>46.99150748518302</v>
       </c>
       <c r="S29" t="n">
-        <v>17.04684658537574</v>
+        <v>17.04684658537573</v>
       </c>
       <c r="T29" t="n">
-        <v>3.274715125726045</v>
+        <v>3.274715125726044</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05984630726626691</v>
+        <v>0.05984630726626689</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4002574665809353</v>
+        <v>0.4002574665809351</v>
       </c>
       <c r="H30" t="n">
-        <v>3.86564447987377</v>
+        <v>3.865644479873769</v>
       </c>
       <c r="I30" t="n">
         <v>13.78079435377343</v>
       </c>
       <c r="J30" t="n">
-        <v>37.81555301587688</v>
+        <v>37.81555301587687</v>
       </c>
       <c r="K30" t="n">
-        <v>64.63280327679954</v>
+        <v>64.63280327679952</v>
       </c>
       <c r="L30" t="n">
-        <v>86.90678018898772</v>
+        <v>86.90678018898771</v>
       </c>
       <c r="M30" t="n">
         <v>101.4161133525466</v>
@@ -33277,25 +33277,25 @@
         <v>104.1002960999249</v>
       </c>
       <c r="O30" t="n">
-        <v>95.23143328778946</v>
+        <v>95.23143328778943</v>
       </c>
       <c r="P30" t="n">
-        <v>76.43162096491562</v>
+        <v>76.4316209649156</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.09251450601553</v>
+        <v>51.09251450601552</v>
       </c>
       <c r="R30" t="n">
         <v>24.85107323210404</v>
       </c>
       <c r="S30" t="n">
-        <v>7.434606890220437</v>
+        <v>7.434606890220436</v>
       </c>
       <c r="T30" t="n">
-        <v>1.613318472753857</v>
+        <v>1.613318472753856</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02633272806453523</v>
+        <v>0.02633272806453522</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3355624144617274</v>
+        <v>0.3355624144617273</v>
       </c>
       <c r="H31" t="n">
         <v>2.983454921305178</v>
@@ -33341,37 +33341,37 @@
         <v>10.0912769730854</v>
       </c>
       <c r="J31" t="n">
-        <v>23.72426270244413</v>
+        <v>23.72426270244412</v>
       </c>
       <c r="K31" t="n">
-        <v>38.98625142564432</v>
+        <v>38.9862514256443</v>
       </c>
       <c r="L31" t="n">
-        <v>49.88897932824628</v>
+        <v>49.88897932824626</v>
       </c>
       <c r="M31" t="n">
-        <v>52.60093375057786</v>
+        <v>52.60093375057784</v>
       </c>
       <c r="N31" t="n">
-        <v>51.35020111485692</v>
+        <v>51.3502011148569</v>
       </c>
       <c r="O31" t="n">
-        <v>47.43022200046309</v>
+        <v>47.43022200046308</v>
       </c>
       <c r="P31" t="n">
-        <v>40.58474874544381</v>
+        <v>40.5847487454438</v>
       </c>
       <c r="Q31" t="n">
-        <v>28.09877636006338</v>
+        <v>28.09877636006337</v>
       </c>
       <c r="R31" t="n">
-        <v>15.08810638116094</v>
+        <v>15.08810638116093</v>
       </c>
       <c r="S31" t="n">
-        <v>5.847937713846648</v>
+        <v>5.847937713846646</v>
       </c>
       <c r="T31" t="n">
-        <v>1.433766679972835</v>
+        <v>1.433766679972834</v>
       </c>
       <c r="U31" t="n">
         <v>0.01830340442518515</v>
@@ -33411,28 +33411,28 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7480788408283365</v>
+        <v>0.7480788408283363</v>
       </c>
       <c r="H32" t="n">
-        <v>7.661262428633203</v>
+        <v>7.661262428633201</v>
       </c>
       <c r="I32" t="n">
-        <v>28.84030951103447</v>
+        <v>28.84030951103446</v>
       </c>
       <c r="J32" t="n">
-        <v>63.49225651675408</v>
+        <v>63.49225651675407</v>
       </c>
       <c r="K32" t="n">
-        <v>95.15843384901758</v>
+        <v>95.15843384901756</v>
       </c>
       <c r="L32" t="n">
         <v>118.0524516740178</v>
       </c>
       <c r="M32" t="n">
-        <v>131.3560987595988</v>
+        <v>131.3560987595987</v>
       </c>
       <c r="N32" t="n">
-        <v>133.4815777661023</v>
+        <v>133.4815777661022</v>
       </c>
       <c r="O32" t="n">
         <v>126.0428687926155</v>
@@ -33441,19 +33441,19 @@
         <v>107.5746724096659</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.78409892250109</v>
+        <v>80.78409892250106</v>
       </c>
       <c r="R32" t="n">
-        <v>46.99150748518304</v>
+        <v>46.99150748518302</v>
       </c>
       <c r="S32" t="n">
-        <v>17.04684658537574</v>
+        <v>17.04684658537573</v>
       </c>
       <c r="T32" t="n">
-        <v>3.274715125726045</v>
+        <v>3.274715125726044</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05984630726626691</v>
+        <v>0.05984630726626689</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4002574665809353</v>
+        <v>0.4002574665809351</v>
       </c>
       <c r="H33" t="n">
-        <v>3.86564447987377</v>
+        <v>3.865644479873769</v>
       </c>
       <c r="I33" t="n">
         <v>13.78079435377343</v>
       </c>
       <c r="J33" t="n">
-        <v>37.81555301587688</v>
+        <v>37.81555301587687</v>
       </c>
       <c r="K33" t="n">
-        <v>64.63280327679954</v>
+        <v>64.63280327679952</v>
       </c>
       <c r="L33" t="n">
-        <v>86.90678018898772</v>
+        <v>86.90678018898771</v>
       </c>
       <c r="M33" t="n">
         <v>101.4161133525466</v>
@@ -33514,25 +33514,25 @@
         <v>104.1002960999249</v>
       </c>
       <c r="O33" t="n">
-        <v>95.23143328778946</v>
+        <v>95.23143328778943</v>
       </c>
       <c r="P33" t="n">
-        <v>76.43162096491562</v>
+        <v>76.4316209649156</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.09251450601553</v>
+        <v>51.09251450601552</v>
       </c>
       <c r="R33" t="n">
         <v>24.85107323210404</v>
       </c>
       <c r="S33" t="n">
-        <v>7.434606890220437</v>
+        <v>7.434606890220436</v>
       </c>
       <c r="T33" t="n">
-        <v>1.613318472753857</v>
+        <v>1.613318472753856</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02633272806453523</v>
+        <v>0.02633272806453522</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,7 +33569,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3355624144617274</v>
+        <v>0.3355624144617273</v>
       </c>
       <c r="H34" t="n">
         <v>2.983454921305178</v>
@@ -33578,37 +33578,37 @@
         <v>10.0912769730854</v>
       </c>
       <c r="J34" t="n">
-        <v>23.72426270244413</v>
+        <v>23.72426270244412</v>
       </c>
       <c r="K34" t="n">
-        <v>38.98625142564432</v>
+        <v>38.9862514256443</v>
       </c>
       <c r="L34" t="n">
-        <v>49.88897932824628</v>
+        <v>49.88897932824626</v>
       </c>
       <c r="M34" t="n">
-        <v>52.60093375057786</v>
+        <v>52.60093375057784</v>
       </c>
       <c r="N34" t="n">
-        <v>51.35020111485692</v>
+        <v>51.3502011148569</v>
       </c>
       <c r="O34" t="n">
-        <v>47.43022200046309</v>
+        <v>47.43022200046308</v>
       </c>
       <c r="P34" t="n">
-        <v>40.58474874544381</v>
+        <v>40.5847487454438</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.09877636006338</v>
+        <v>28.09877636006337</v>
       </c>
       <c r="R34" t="n">
-        <v>15.08810638116094</v>
+        <v>15.08810638116093</v>
       </c>
       <c r="S34" t="n">
-        <v>5.847937713846648</v>
+        <v>5.847937713846646</v>
       </c>
       <c r="T34" t="n">
-        <v>1.433766679972835</v>
+        <v>1.433766679972834</v>
       </c>
       <c r="U34" t="n">
         <v>0.01830340442518515</v>
@@ -33648,28 +33648,28 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7480788408283365</v>
+        <v>0.7480788408283363</v>
       </c>
       <c r="H35" t="n">
-        <v>7.661262428633203</v>
+        <v>7.661262428633201</v>
       </c>
       <c r="I35" t="n">
-        <v>28.84030951103447</v>
+        <v>28.84030951103446</v>
       </c>
       <c r="J35" t="n">
-        <v>63.49225651675408</v>
+        <v>63.49225651675407</v>
       </c>
       <c r="K35" t="n">
-        <v>95.15843384901758</v>
+        <v>95.15843384901756</v>
       </c>
       <c r="L35" t="n">
         <v>118.0524516740178</v>
       </c>
       <c r="M35" t="n">
-        <v>131.3560987595988</v>
+        <v>131.3560987595987</v>
       </c>
       <c r="N35" t="n">
-        <v>133.4815777661023</v>
+        <v>133.4815777661022</v>
       </c>
       <c r="O35" t="n">
         <v>126.0428687926155</v>
@@ -33678,19 +33678,19 @@
         <v>107.5746724096659</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.78409892250109</v>
+        <v>80.78409892250106</v>
       </c>
       <c r="R35" t="n">
-        <v>46.99150748518304</v>
+        <v>46.99150748518302</v>
       </c>
       <c r="S35" t="n">
-        <v>17.04684658537574</v>
+        <v>17.04684658537573</v>
       </c>
       <c r="T35" t="n">
-        <v>3.274715125726045</v>
+        <v>3.274715125726044</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05984630726626691</v>
+        <v>0.05984630726626689</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4002574665809353</v>
+        <v>0.4002574665809351</v>
       </c>
       <c r="H36" t="n">
-        <v>3.86564447987377</v>
+        <v>3.865644479873769</v>
       </c>
       <c r="I36" t="n">
         <v>13.78079435377343</v>
       </c>
       <c r="J36" t="n">
-        <v>37.81555301587688</v>
+        <v>37.81555301587687</v>
       </c>
       <c r="K36" t="n">
-        <v>64.63280327679954</v>
+        <v>64.63280327679952</v>
       </c>
       <c r="L36" t="n">
-        <v>86.90678018898772</v>
+        <v>86.90678018898771</v>
       </c>
       <c r="M36" t="n">
         <v>101.4161133525466</v>
@@ -33751,25 +33751,25 @@
         <v>104.1002960999249</v>
       </c>
       <c r="O36" t="n">
-        <v>95.23143328778946</v>
+        <v>95.23143328778943</v>
       </c>
       <c r="P36" t="n">
-        <v>76.43162096491562</v>
+        <v>76.4316209649156</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.09251450601553</v>
+        <v>51.09251450601552</v>
       </c>
       <c r="R36" t="n">
         <v>24.85107323210404</v>
       </c>
       <c r="S36" t="n">
-        <v>7.434606890220437</v>
+        <v>7.434606890220436</v>
       </c>
       <c r="T36" t="n">
-        <v>1.613318472753857</v>
+        <v>1.613318472753856</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02633272806453523</v>
+        <v>0.02633272806453522</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,7 +33806,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3355624144617274</v>
+        <v>0.3355624144617273</v>
       </c>
       <c r="H37" t="n">
         <v>2.983454921305178</v>
@@ -33815,37 +33815,37 @@
         <v>10.0912769730854</v>
       </c>
       <c r="J37" t="n">
-        <v>23.72426270244413</v>
+        <v>23.72426270244412</v>
       </c>
       <c r="K37" t="n">
-        <v>38.98625142564432</v>
+        <v>38.9862514256443</v>
       </c>
       <c r="L37" t="n">
-        <v>49.88897932824628</v>
+        <v>49.88897932824626</v>
       </c>
       <c r="M37" t="n">
-        <v>52.60093375057786</v>
+        <v>52.60093375057784</v>
       </c>
       <c r="N37" t="n">
-        <v>51.35020111485692</v>
+        <v>51.3502011148569</v>
       </c>
       <c r="O37" t="n">
-        <v>47.43022200046309</v>
+        <v>47.43022200046308</v>
       </c>
       <c r="P37" t="n">
-        <v>40.58474874544381</v>
+        <v>40.5847487454438</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.09877636006338</v>
+        <v>28.09877636006337</v>
       </c>
       <c r="R37" t="n">
-        <v>15.08810638116094</v>
+        <v>15.08810638116093</v>
       </c>
       <c r="S37" t="n">
-        <v>5.847937713846648</v>
+        <v>5.847937713846646</v>
       </c>
       <c r="T37" t="n">
-        <v>1.433766679972835</v>
+        <v>1.433766679972834</v>
       </c>
       <c r="U37" t="n">
         <v>0.01830340442518515</v>
@@ -33885,28 +33885,28 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7480788408283368</v>
+        <v>0.7480788408283364</v>
       </c>
       <c r="H38" t="n">
-        <v>7.661262428633206</v>
+        <v>7.661262428633203</v>
       </c>
       <c r="I38" t="n">
-        <v>28.84030951103448</v>
+        <v>28.84030951103447</v>
       </c>
       <c r="J38" t="n">
-        <v>63.4922565167541</v>
+        <v>63.49225651675408</v>
       </c>
       <c r="K38" t="n">
-        <v>95.15843384901761</v>
+        <v>95.15843384901757</v>
       </c>
       <c r="L38" t="n">
         <v>118.0524516740178</v>
       </c>
       <c r="M38" t="n">
-        <v>131.3560987595988</v>
+        <v>131.3560987595987</v>
       </c>
       <c r="N38" t="n">
-        <v>133.4815777661023</v>
+        <v>133.4815777661022</v>
       </c>
       <c r="O38" t="n">
         <v>126.0428687926155</v>
@@ -33915,19 +33915,19 @@
         <v>107.5746724096659</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.7840989225011</v>
+        <v>80.78409892250107</v>
       </c>
       <c r="R38" t="n">
-        <v>46.99150748518305</v>
+        <v>46.99150748518303</v>
       </c>
       <c r="S38" t="n">
-        <v>17.04684658537574</v>
+        <v>17.04684658537573</v>
       </c>
       <c r="T38" t="n">
-        <v>3.274715125726046</v>
+        <v>3.274715125726044</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05984630726626693</v>
+        <v>0.0598463072662669</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4002574665809354</v>
+        <v>0.4002574665809352</v>
       </c>
       <c r="H39" t="n">
-        <v>3.865644479873771</v>
+        <v>3.86564447987377</v>
       </c>
       <c r="I39" t="n">
-        <v>13.78079435377344</v>
+        <v>13.78079435377343</v>
       </c>
       <c r="J39" t="n">
-        <v>37.81555301587689</v>
+        <v>37.81555301587687</v>
       </c>
       <c r="K39" t="n">
-        <v>64.63280327679956</v>
+        <v>64.63280327679954</v>
       </c>
       <c r="L39" t="n">
-        <v>86.90678018898775</v>
+        <v>86.90678018898771</v>
       </c>
       <c r="M39" t="n">
         <v>101.4161133525466</v>
@@ -33988,25 +33988,25 @@
         <v>104.1002960999249</v>
       </c>
       <c r="O39" t="n">
-        <v>95.23143328778949</v>
+        <v>95.23143328778944</v>
       </c>
       <c r="P39" t="n">
-        <v>76.43162096491564</v>
+        <v>76.43162096491561</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.09251450601555</v>
+        <v>51.09251450601553</v>
       </c>
       <c r="R39" t="n">
-        <v>24.85107323210405</v>
+        <v>24.85107323210404</v>
       </c>
       <c r="S39" t="n">
-        <v>7.43460689022044</v>
+        <v>7.434606890220437</v>
       </c>
       <c r="T39" t="n">
         <v>1.613318472753857</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02633272806453523</v>
+        <v>0.02633272806453522</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3355624144617275</v>
+        <v>0.3355624144617274</v>
       </c>
       <c r="H40" t="n">
-        <v>2.983454921305179</v>
+        <v>2.983454921305178</v>
       </c>
       <c r="I40" t="n">
-        <v>10.09127697308541</v>
+        <v>10.0912769730854</v>
       </c>
       <c r="J40" t="n">
-        <v>23.72426270244413</v>
+        <v>23.72426270244412</v>
       </c>
       <c r="K40" t="n">
-        <v>38.98625142564433</v>
+        <v>38.98625142564431</v>
       </c>
       <c r="L40" t="n">
-        <v>49.88897932824629</v>
+        <v>49.88897932824627</v>
       </c>
       <c r="M40" t="n">
-        <v>52.60093375057788</v>
+        <v>52.60093375057785</v>
       </c>
       <c r="N40" t="n">
-        <v>51.35020111485694</v>
+        <v>51.35020111485692</v>
       </c>
       <c r="O40" t="n">
-        <v>47.4302220004631</v>
+        <v>47.43022200046308</v>
       </c>
       <c r="P40" t="n">
-        <v>40.58474874544383</v>
+        <v>40.58474874544381</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.09877636006338</v>
+        <v>28.09877636006337</v>
       </c>
       <c r="R40" t="n">
         <v>15.08810638116094</v>
       </c>
       <c r="S40" t="n">
-        <v>5.847937713846649</v>
+        <v>5.847937713846647</v>
       </c>
       <c r="T40" t="n">
         <v>1.433766679972835</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01830340442518516</v>
+        <v>0.01830340442518515</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,28 +34122,28 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7480788408283368</v>
+        <v>0.7480788408283364</v>
       </c>
       <c r="H41" t="n">
-        <v>7.661262428633206</v>
+        <v>7.661262428633203</v>
       </c>
       <c r="I41" t="n">
-        <v>28.84030951103448</v>
+        <v>28.84030951103447</v>
       </c>
       <c r="J41" t="n">
-        <v>63.4922565167541</v>
+        <v>63.49225651675408</v>
       </c>
       <c r="K41" t="n">
-        <v>95.15843384901761</v>
+        <v>95.15843384901757</v>
       </c>
       <c r="L41" t="n">
         <v>118.0524516740178</v>
       </c>
       <c r="M41" t="n">
-        <v>131.3560987595988</v>
+        <v>131.3560987595987</v>
       </c>
       <c r="N41" t="n">
-        <v>133.4815777661023</v>
+        <v>133.4815777661022</v>
       </c>
       <c r="O41" t="n">
         <v>126.0428687926155</v>
@@ -34152,19 +34152,19 @@
         <v>107.5746724096659</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.7840989225011</v>
+        <v>80.78409892250107</v>
       </c>
       <c r="R41" t="n">
-        <v>46.99150748518305</v>
+        <v>46.99150748518303</v>
       </c>
       <c r="S41" t="n">
-        <v>17.04684658537574</v>
+        <v>17.04684658537573</v>
       </c>
       <c r="T41" t="n">
-        <v>3.274715125726046</v>
+        <v>3.274715125726044</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05984630726626693</v>
+        <v>0.0598463072662669</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4002574665809354</v>
+        <v>0.4002574665809352</v>
       </c>
       <c r="H42" t="n">
-        <v>3.865644479873771</v>
+        <v>3.86564447987377</v>
       </c>
       <c r="I42" t="n">
-        <v>13.78079435377344</v>
+        <v>13.78079435377343</v>
       </c>
       <c r="J42" t="n">
-        <v>37.81555301587689</v>
+        <v>37.81555301587687</v>
       </c>
       <c r="K42" t="n">
-        <v>64.63280327679956</v>
+        <v>64.63280327679954</v>
       </c>
       <c r="L42" t="n">
-        <v>86.90678018898775</v>
+        <v>86.90678018898771</v>
       </c>
       <c r="M42" t="n">
         <v>101.4161133525466</v>
@@ -34225,25 +34225,25 @@
         <v>104.1002960999249</v>
       </c>
       <c r="O42" t="n">
-        <v>95.23143328778949</v>
+        <v>95.23143328778944</v>
       </c>
       <c r="P42" t="n">
-        <v>76.43162096491564</v>
+        <v>76.43162096491561</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.09251450601555</v>
+        <v>51.09251450601553</v>
       </c>
       <c r="R42" t="n">
-        <v>24.85107323210405</v>
+        <v>24.85107323210404</v>
       </c>
       <c r="S42" t="n">
-        <v>7.43460689022044</v>
+        <v>7.434606890220437</v>
       </c>
       <c r="T42" t="n">
         <v>1.613318472753857</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02633272806453523</v>
+        <v>0.02633272806453522</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3355624144617275</v>
+        <v>0.3355624144617274</v>
       </c>
       <c r="H43" t="n">
-        <v>2.983454921305179</v>
+        <v>2.983454921305178</v>
       </c>
       <c r="I43" t="n">
-        <v>10.09127697308541</v>
+        <v>10.0912769730854</v>
       </c>
       <c r="J43" t="n">
-        <v>23.72426270244413</v>
+        <v>23.72426270244412</v>
       </c>
       <c r="K43" t="n">
-        <v>38.98625142564433</v>
+        <v>38.98625142564431</v>
       </c>
       <c r="L43" t="n">
-        <v>49.88897932824629</v>
+        <v>49.88897932824627</v>
       </c>
       <c r="M43" t="n">
-        <v>52.60093375057788</v>
+        <v>52.60093375057785</v>
       </c>
       <c r="N43" t="n">
-        <v>51.35020111485694</v>
+        <v>51.35020111485692</v>
       </c>
       <c r="O43" t="n">
-        <v>47.4302220004631</v>
+        <v>47.43022200046308</v>
       </c>
       <c r="P43" t="n">
-        <v>40.58474874544383</v>
+        <v>40.58474874544381</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.09877636006338</v>
+        <v>28.09877636006337</v>
       </c>
       <c r="R43" t="n">
         <v>15.08810638116094</v>
       </c>
       <c r="S43" t="n">
-        <v>5.847937713846649</v>
+        <v>5.847937713846647</v>
       </c>
       <c r="T43" t="n">
         <v>1.433766679972835</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01830340442518516</v>
+        <v>0.01830340442518515</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,28 +34359,28 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7480788408283368</v>
+        <v>0.7480788408283364</v>
       </c>
       <c r="H44" t="n">
-        <v>7.661262428633206</v>
+        <v>7.661262428633203</v>
       </c>
       <c r="I44" t="n">
-        <v>28.84030951103448</v>
+        <v>28.84030951103447</v>
       </c>
       <c r="J44" t="n">
-        <v>63.4922565167541</v>
+        <v>63.49225651675408</v>
       </c>
       <c r="K44" t="n">
-        <v>95.15843384901761</v>
+        <v>95.15843384901757</v>
       </c>
       <c r="L44" t="n">
         <v>118.0524516740178</v>
       </c>
       <c r="M44" t="n">
-        <v>131.3560987595988</v>
+        <v>131.3560987595987</v>
       </c>
       <c r="N44" t="n">
-        <v>133.4815777661023</v>
+        <v>133.4815777661022</v>
       </c>
       <c r="O44" t="n">
         <v>126.0428687926155</v>
@@ -34389,19 +34389,19 @@
         <v>107.5746724096659</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.7840989225011</v>
+        <v>80.78409892250107</v>
       </c>
       <c r="R44" t="n">
-        <v>46.99150748518305</v>
+        <v>46.99150748518303</v>
       </c>
       <c r="S44" t="n">
-        <v>17.04684658537574</v>
+        <v>17.04684658537573</v>
       </c>
       <c r="T44" t="n">
-        <v>3.274715125726046</v>
+        <v>3.274715125726044</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05984630726626693</v>
+        <v>0.0598463072662669</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4002574665809354</v>
+        <v>0.4002574665809352</v>
       </c>
       <c r="H45" t="n">
-        <v>3.865644479873771</v>
+        <v>3.86564447987377</v>
       </c>
       <c r="I45" t="n">
-        <v>13.78079435377344</v>
+        <v>13.78079435377343</v>
       </c>
       <c r="J45" t="n">
-        <v>37.81555301587689</v>
+        <v>37.81555301587687</v>
       </c>
       <c r="K45" t="n">
-        <v>64.63280327679956</v>
+        <v>64.63280327679954</v>
       </c>
       <c r="L45" t="n">
-        <v>86.90678018898775</v>
+        <v>86.90678018898771</v>
       </c>
       <c r="M45" t="n">
         <v>101.4161133525466</v>
@@ -34462,25 +34462,25 @@
         <v>104.1002960999249</v>
       </c>
       <c r="O45" t="n">
-        <v>95.23143328778949</v>
+        <v>95.23143328778944</v>
       </c>
       <c r="P45" t="n">
-        <v>76.43162096491564</v>
+        <v>76.43162096491561</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.09251450601555</v>
+        <v>51.09251450601553</v>
       </c>
       <c r="R45" t="n">
-        <v>24.85107323210405</v>
+        <v>24.85107323210404</v>
       </c>
       <c r="S45" t="n">
-        <v>7.43460689022044</v>
+        <v>7.434606890220437</v>
       </c>
       <c r="T45" t="n">
         <v>1.613318472753857</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02633272806453523</v>
+        <v>0.02633272806453522</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3355624144617275</v>
+        <v>0.3355624144617274</v>
       </c>
       <c r="H46" t="n">
-        <v>2.983454921305179</v>
+        <v>2.983454921305178</v>
       </c>
       <c r="I46" t="n">
-        <v>10.09127697308541</v>
+        <v>10.0912769730854</v>
       </c>
       <c r="J46" t="n">
-        <v>23.72426270244413</v>
+        <v>23.72426270244412</v>
       </c>
       <c r="K46" t="n">
-        <v>38.98625142564433</v>
+        <v>38.98625142564431</v>
       </c>
       <c r="L46" t="n">
-        <v>49.88897932824629</v>
+        <v>49.88897932824627</v>
       </c>
       <c r="M46" t="n">
-        <v>52.60093375057788</v>
+        <v>52.60093375057785</v>
       </c>
       <c r="N46" t="n">
-        <v>51.35020111485694</v>
+        <v>51.35020111485692</v>
       </c>
       <c r="O46" t="n">
-        <v>47.4302220004631</v>
+        <v>47.43022200046308</v>
       </c>
       <c r="P46" t="n">
-        <v>40.58474874544383</v>
+        <v>40.58474874544381</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.09877636006338</v>
+        <v>28.09877636006337</v>
       </c>
       <c r="R46" t="n">
         <v>15.08810638116094</v>
       </c>
       <c r="S46" t="n">
-        <v>5.847937713846649</v>
+        <v>5.847937713846647</v>
       </c>
       <c r="T46" t="n">
         <v>1.433766679972835</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01830340442518516</v>
+        <v>0.01830340442518515</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>244.7971333371383</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34780,7 +34780,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>34.48300429637442</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34789,7 +34789,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>389.1627148536588</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34944,10 +34944,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>263.1704832433186</v>
       </c>
       <c r="N5" t="n">
-        <v>390.9080150632272</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>146.5021092201962</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>66.19388044736954</v>
       </c>
       <c r="N6" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35187,10 +35187,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>93.7017183923758</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35412,19 +35412,19 @@
         <v>196.9314106460809</v>
       </c>
       <c r="K11" t="n">
-        <v>438.7752394197637</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M11" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>318.8542160150137</v>
       </c>
       <c r="O11" t="n">
-        <v>425.4507680529764</v>
+        <v>545.3717914577264</v>
       </c>
       <c r="P11" t="n">
         <v>437.8095533018835</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>144.5259166669744</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>374.7022807871404</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>126.3604594946217</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>558.472083047857</v>
       </c>
       <c r="O12" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="P12" t="n">
-        <v>470.8960208784699</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>438.7752394197637</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M14" t="n">
-        <v>569.2624978390901</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N14" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>545.3717914577264</v>
+        <v>523.2221630275214</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L15" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M15" t="n">
-        <v>558.4720830478572</v>
+        <v>26.65797564357334</v>
       </c>
       <c r="N15" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O15" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>209.6031382428431</v>
+        <v>209.603138242843</v>
       </c>
       <c r="K17" t="n">
         <v>457.7668742807972</v>
@@ -35895,7 +35895,7 @@
         <v>682.8721594106902</v>
       </c>
       <c r="N17" t="n">
-        <v>666.6242885110134</v>
+        <v>666.6242885110133</v>
       </c>
       <c r="O17" t="n">
         <v>570.5273141384017</v>
@@ -35907,7 +35907,7 @@
         <v>267.4967859335602</v>
       </c>
       <c r="R17" t="n">
-        <v>9.378522907849749</v>
+        <v>9.378522907849742</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>84.01268330397031</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>387.6016376830888</v>
       </c>
       <c r="L18" t="n">
-        <v>143.548344141613</v>
+        <v>575.3573720054658</v>
       </c>
       <c r="M18" t="n">
         <v>735.5288907532347</v>
       </c>
       <c r="N18" t="n">
-        <v>18.72818324575825</v>
+        <v>18.72818324575823</v>
       </c>
       <c r="O18" t="n">
-        <v>616.9690924705985</v>
+        <v>2.543874398900542</v>
       </c>
       <c r="P18" t="n">
         <v>486.1501752239029</v>
       </c>
       <c r="Q18" t="n">
-        <v>287.8249302180261</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.173200561187937</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,7 +36047,7 @@
         <v>121.6479091124543</v>
       </c>
       <c r="L19" t="n">
-        <v>215.6744741502663</v>
+        <v>215.6744741502662</v>
       </c>
       <c r="M19" t="n">
         <v>240.7742452033698</v>
@@ -36062,7 +36062,7 @@
         <v>161.671784883402</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.55554037021586</v>
+        <v>31.55554037021585</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>209.603138242843</v>
       </c>
       <c r="K20" t="n">
-        <v>457.7668742807971</v>
+        <v>457.7668742807972</v>
       </c>
       <c r="L20" t="n">
-        <v>616.3557766422286</v>
+        <v>616.3557766422288</v>
       </c>
       <c r="M20" t="n">
-        <v>682.8721594106901</v>
+        <v>682.8721594106902</v>
       </c>
       <c r="N20" t="n">
         <v>666.6242885110133</v>
@@ -36138,13 +36138,13 @@
         <v>570.5273141384017</v>
       </c>
       <c r="P20" t="n">
-        <v>459.2792099162535</v>
+        <v>459.2792099162536</v>
       </c>
       <c r="Q20" t="n">
-        <v>267.4967859335601</v>
+        <v>267.4967859335602</v>
       </c>
       <c r="R20" t="n">
-        <v>9.378522907849721</v>
+        <v>9.378522907849742</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>152.0731108135813</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>168.8187622385518</v>
+        <v>387.6016376830888</v>
       </c>
       <c r="L21" t="n">
-        <v>575.3573720054657</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>9.028991303234619</v>
+        <v>9.028991303234662</v>
       </c>
       <c r="N21" t="n">
-        <v>766.5022872217016</v>
+        <v>766.5022872217017</v>
       </c>
       <c r="O21" t="n">
         <v>616.9690924705985</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>486.1501752239029</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>23.6706327117948</v>
       </c>
       <c r="R21" t="n">
-        <v>1.173200561187922</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36299,7 +36299,7 @@
         <v>161.671784883402</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.55554037021584</v>
+        <v>31.55554037021585</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>209.6031382428431</v>
+        <v>209.603138242843</v>
       </c>
       <c r="K23" t="n">
         <v>457.7668742807972</v>
@@ -36366,13 +36366,13 @@
         <v>616.3557766422288</v>
       </c>
       <c r="M23" t="n">
-        <v>682.8721594106903</v>
+        <v>682.8721594106902</v>
       </c>
       <c r="N23" t="n">
-        <v>666.6242885110134</v>
+        <v>666.6242885110133</v>
       </c>
       <c r="O23" t="n">
-        <v>570.5273141384018</v>
+        <v>570.5273141384017</v>
       </c>
       <c r="P23" t="n">
         <v>459.2792099162536</v>
@@ -36381,7 +36381,7 @@
         <v>267.4967859335602</v>
       </c>
       <c r="R23" t="n">
-        <v>9.378522907849757</v>
+        <v>9.378522907849742</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>169.7493456075985</v>
+        <v>387.6016376830888</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>575.3573720054658</v>
       </c>
       <c r="M24" t="n">
-        <v>735.5288907532347</v>
+        <v>9.028991303234662</v>
       </c>
       <c r="N24" t="n">
-        <v>766.5022872217017</v>
+        <v>18.72818324575823</v>
       </c>
       <c r="O24" t="n">
-        <v>616.9690924705985</v>
+        <v>525.2315269348449</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>486.1501752239029</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>287.8249302180261</v>
       </c>
       <c r="R24" t="n">
-        <v>1.17320056118794</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>121.6479091124543</v>
       </c>
       <c r="L25" t="n">
-        <v>215.6744741502663</v>
+        <v>215.6744741502662</v>
       </c>
       <c r="M25" t="n">
         <v>240.7742452033698</v>
@@ -36536,7 +36536,7 @@
         <v>161.671784883402</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.55554037021586</v>
+        <v>31.55554037021585</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>209.6031382428431</v>
+        <v>209.603138242843</v>
       </c>
       <c r="K26" t="n">
         <v>457.7668742807972</v>
@@ -36603,13 +36603,13 @@
         <v>616.3557766422288</v>
       </c>
       <c r="M26" t="n">
-        <v>682.8721594106903</v>
+        <v>682.8721594106902</v>
       </c>
       <c r="N26" t="n">
-        <v>666.6242885110134</v>
+        <v>666.6242885110133</v>
       </c>
       <c r="O26" t="n">
-        <v>570.5273141384018</v>
+        <v>570.5273141384017</v>
       </c>
       <c r="P26" t="n">
         <v>459.2792099162536</v>
@@ -36618,7 +36618,7 @@
         <v>267.4967859335602</v>
       </c>
       <c r="R26" t="n">
-        <v>9.378522907849757</v>
+        <v>9.378522907849742</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>387.6016376830888</v>
       </c>
       <c r="L27" t="n">
         <v>575.3573720054658</v>
       </c>
       <c r="M27" t="n">
-        <v>735.5288907532347</v>
+        <v>9.028991303234662</v>
       </c>
       <c r="N27" t="n">
-        <v>766.5022872217017</v>
+        <v>214.8155479280305</v>
       </c>
       <c r="O27" t="n">
-        <v>2.54387439890057</v>
+        <v>616.9690924705985</v>
       </c>
       <c r="P27" t="n">
-        <v>208.8171916738307</v>
+        <v>486.1501752239029</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.17320056118794</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>121.6479091124543</v>
       </c>
       <c r="L28" t="n">
-        <v>215.6744741502663</v>
+        <v>215.6744741502662</v>
       </c>
       <c r="M28" t="n">
         <v>240.7742452033698</v>
@@ -36773,7 +36773,7 @@
         <v>161.671784883402</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.55554037021586</v>
+        <v>31.55554037021585</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>209.6031382428431</v>
+        <v>209.603138242843</v>
       </c>
       <c r="K29" t="n">
         <v>457.7668742807972</v>
@@ -36840,13 +36840,13 @@
         <v>616.3557766422288</v>
       </c>
       <c r="M29" t="n">
-        <v>682.8721594106903</v>
+        <v>682.8721594106902</v>
       </c>
       <c r="N29" t="n">
-        <v>666.6242885110134</v>
+        <v>666.6242885110133</v>
       </c>
       <c r="O29" t="n">
-        <v>570.5273141384018</v>
+        <v>570.5273141384017</v>
       </c>
       <c r="P29" t="n">
         <v>459.2792099162536</v>
@@ -36855,7 +36855,7 @@
         <v>267.4967859335602</v>
       </c>
       <c r="R29" t="n">
-        <v>9.378522907849757</v>
+        <v>9.378522907849742</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>387.6016376830888</v>
       </c>
       <c r="L30" t="n">
         <v>575.3573720054658</v>
       </c>
       <c r="M30" t="n">
-        <v>9.02899130323469</v>
+        <v>9.028991303234662</v>
       </c>
       <c r="N30" t="n">
-        <v>766.5022872217017</v>
+        <v>214.8155479280305</v>
       </c>
       <c r="O30" t="n">
         <v>616.9690924705985</v>
       </c>
       <c r="P30" t="n">
-        <v>320.8918730521326</v>
+        <v>486.1501752239029</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.17320056118794</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>121.6479091124543</v>
       </c>
       <c r="L31" t="n">
-        <v>215.6744741502663</v>
+        <v>215.6744741502662</v>
       </c>
       <c r="M31" t="n">
         <v>240.7742452033698</v>
@@ -37010,7 +37010,7 @@
         <v>161.671784883402</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.55554037021586</v>
+        <v>31.55554037021585</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>209.6031382428431</v>
+        <v>209.603138242843</v>
       </c>
       <c r="K32" t="n">
         <v>457.7668742807972</v>
@@ -37077,13 +37077,13 @@
         <v>616.3557766422288</v>
       </c>
       <c r="M32" t="n">
-        <v>682.8721594106903</v>
+        <v>682.8721594106902</v>
       </c>
       <c r="N32" t="n">
-        <v>666.6242885110134</v>
+        <v>666.6242885110133</v>
       </c>
       <c r="O32" t="n">
-        <v>570.5273141384018</v>
+        <v>570.5273141384017</v>
       </c>
       <c r="P32" t="n">
         <v>459.2792099162536</v>
@@ -37092,7 +37092,7 @@
         <v>267.4967859335602</v>
       </c>
       <c r="R32" t="n">
-        <v>9.378522907849757</v>
+        <v>9.378522907849742</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>387.6016376830888</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>575.3573720054658</v>
       </c>
       <c r="M33" t="n">
-        <v>735.5288907532347</v>
+        <v>9.028991303234662</v>
       </c>
       <c r="N33" t="n">
-        <v>766.5022872217017</v>
+        <v>18.72818324575823</v>
       </c>
       <c r="O33" t="n">
         <v>616.9690924705985</v>
       </c>
       <c r="P33" t="n">
-        <v>170.9225461687867</v>
+        <v>486.1501752239029</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>196.0873646822726</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>121.6479091124543</v>
       </c>
       <c r="L34" t="n">
-        <v>215.6744741502663</v>
+        <v>215.6744741502662</v>
       </c>
       <c r="M34" t="n">
         <v>240.7742452033698</v>
@@ -37247,7 +37247,7 @@
         <v>161.671784883402</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.55554037021586</v>
+        <v>31.55554037021585</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>209.6031382428431</v>
+        <v>209.603138242843</v>
       </c>
       <c r="K35" t="n">
         <v>457.7668742807972</v>
@@ -37314,13 +37314,13 @@
         <v>616.3557766422288</v>
       </c>
       <c r="M35" t="n">
-        <v>682.8721594106903</v>
+        <v>682.8721594106902</v>
       </c>
       <c r="N35" t="n">
-        <v>666.6242885110134</v>
+        <v>666.6242885110133</v>
       </c>
       <c r="O35" t="n">
-        <v>570.5273141384018</v>
+        <v>570.5273141384017</v>
       </c>
       <c r="P35" t="n">
         <v>459.2792099162536</v>
@@ -37329,7 +37329,7 @@
         <v>267.4967859335602</v>
       </c>
       <c r="R35" t="n">
-        <v>9.378522907849757</v>
+        <v>9.378522907849742</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>387.6016376830888</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>575.3573720054658</v>
       </c>
       <c r="M36" t="n">
-        <v>32.69962401502923</v>
+        <v>205.116355985507</v>
       </c>
       <c r="N36" t="n">
-        <v>766.5022872217017</v>
+        <v>18.72818324575823</v>
       </c>
       <c r="O36" t="n">
         <v>616.9690924705985</v>
@@ -37469,7 +37469,7 @@
         <v>121.6479091124543</v>
       </c>
       <c r="L37" t="n">
-        <v>215.6744741502663</v>
+        <v>215.6744741502662</v>
       </c>
       <c r="M37" t="n">
         <v>240.7742452033698</v>
@@ -37484,7 +37484,7 @@
         <v>161.671784883402</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.55554037021586</v>
+        <v>31.55554037021585</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>209.6031382428431</v>
       </c>
       <c r="K38" t="n">
-        <v>457.7668742807973</v>
+        <v>457.7668742807972</v>
       </c>
       <c r="L38" t="n">
-        <v>616.3557766422289</v>
+        <v>616.3557766422288</v>
       </c>
       <c r="M38" t="n">
-        <v>682.8721594106903</v>
+        <v>682.8721594106902</v>
       </c>
       <c r="N38" t="n">
         <v>666.6242885110134</v>
       </c>
       <c r="O38" t="n">
-        <v>570.5273141384018</v>
+        <v>570.5273141384017</v>
       </c>
       <c r="P38" t="n">
         <v>459.2792099162536</v>
@@ -37566,7 +37566,7 @@
         <v>267.4967859335602</v>
       </c>
       <c r="R38" t="n">
-        <v>9.378522907849771</v>
+        <v>9.378522907849749</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>152.0731108135813</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>190.0929667644949</v>
+        <v>387.6016376830888</v>
       </c>
       <c r="L39" t="n">
         <v>575.3573720054658</v>
       </c>
       <c r="M39" t="n">
-        <v>735.5288907532347</v>
+        <v>9.028991303234676</v>
       </c>
       <c r="N39" t="n">
-        <v>18.72818324575829</v>
+        <v>18.72818324575825</v>
       </c>
       <c r="O39" t="n">
-        <v>616.9690924705986</v>
+        <v>525.2315269348449</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>486.1501752239029</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>287.8249302180261</v>
       </c>
       <c r="R39" t="n">
-        <v>1.173200561187947</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37715,13 +37715,13 @@
         <v>236.3902354898157</v>
       </c>
       <c r="O40" t="n">
-        <v>211.778471537542</v>
+        <v>211.7784715375419</v>
       </c>
       <c r="P40" t="n">
         <v>161.671784883402</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.55554037021587</v>
+        <v>31.55554037021586</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>209.6031382428431</v>
       </c>
       <c r="K41" t="n">
-        <v>457.7668742807973</v>
+        <v>457.7668742807972</v>
       </c>
       <c r="L41" t="n">
-        <v>512.4436127006194</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>591.4121262692952</v>
+        <v>367.7012202122511</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>570.5273141384018</v>
+        <v>570.5273141384017</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>459.2792099162536</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>267.4967859335602</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>9.378522907849749</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>387.6016376830888</v>
       </c>
       <c r="L42" t="n">
         <v>575.3573720054658</v>
       </c>
       <c r="M42" t="n">
-        <v>45.59101684636192</v>
+        <v>9.028991303234676</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692952</v>
+        <v>240.3725141293337</v>
       </c>
       <c r="O42" t="n">
         <v>591.4121262692952</v>
@@ -37952,13 +37952,13 @@
         <v>236.3902354898157</v>
       </c>
       <c r="O43" t="n">
-        <v>211.778471537542</v>
+        <v>211.7784715375419</v>
       </c>
       <c r="P43" t="n">
         <v>161.671784883402</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.55554037021587</v>
+        <v>31.55554037021586</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>109.7498125432736</v>
       </c>
       <c r="K44" t="n">
-        <v>457.7668742807973</v>
+        <v>457.7668742807972</v>
       </c>
       <c r="L44" t="n">
         <v>591.4121262692952</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>591.4121262692952</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>591.4121262692952</v>
       </c>
       <c r="O44" t="n">
-        <v>570.5273141384018</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>459.2792099162536</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>253.389018119359</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>9.378522907849771</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>152.0731108135813</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>387.6016376830888</v>
       </c>
       <c r="L45" t="n">
-        <v>363.6133269928541</v>
+        <v>575.3573720054658</v>
       </c>
       <c r="M45" t="n">
         <v>591.4121262692952</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692952</v>
+        <v>18.72818324575825</v>
       </c>
       <c r="O45" t="n">
-        <v>591.4121262692952</v>
+        <v>230.6733221868105</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>486.1501752239029</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38189,13 +38189,13 @@
         <v>236.3902354898157</v>
       </c>
       <c r="O46" t="n">
-        <v>211.778471537542</v>
+        <v>211.7784715375419</v>
       </c>
       <c r="P46" t="n">
         <v>161.671784883402</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.55554037021587</v>
+        <v>31.55554037021586</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
